--- a/deepstream/配置文件属性.xlsx
+++ b/deepstream/配置文件属性.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\filles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14BD927-31AC-41EC-9BCF-26ED663C1E38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C456C5C6-EACB-480C-8DF8-28D8D0EB03D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{398ED892-0B42-476A-8DF7-FB7766D0B9D6}"/>
   </bookViews>
@@ -586,43 +586,28 @@
     <t>tracker-width</t>
   </si>
   <si>
-    <t>Frame width at which the tracker will operate, in pixels.</t>
-  </si>
-  <si>
     <t>tracker-width=960</t>
   </si>
   <si>
     <t>tracker-height</t>
   </si>
   <si>
-    <t>Frame height at which the tracker will operate, in pixels.</t>
-  </si>
-  <si>
     <t>tracker-height=540</t>
   </si>
   <si>
     <t>ll-config-file</t>
   </si>
   <si>
-    <t>Pathname for the low-level tracker configuration file.</t>
-  </si>
-  <si>
     <t>ll-config-file=iou_config.txt</t>
   </si>
   <si>
     <t>ll-lib-file</t>
   </si>
   <si>
-    <t>Pathname for the low-level tracker implementation library.</t>
-  </si>
-  <si>
     <t>ll-lib-file=/usr/local/deepstream/libnvds_mot_iou.so</t>
   </si>
   <si>
     <t>enable-batch-process</t>
-  </si>
-  <si>
-    <t>Enables batch processing across multiple streams.</t>
   </si>
   <si>
     <t>enable-batch-process=1</t>
@@ -1339,6 +1324,26 @@
   </si>
   <si>
     <t>多gpu时，使用的gpu编号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pathname for the low-level tracker configuration file.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enables batch processing across multiple streams.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pathname for the low-level tracker implementation library.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一帧中IOU区域的width，像素单位</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一帧中IOU区域的height，像素单位</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1909,7 +1914,7 @@
   <sheetData>
     <row r="2" spans="2:3" ht="36.950000000000003" customHeight="1" thickBot="1">
       <c r="B2" s="13" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C2" s="14"/>
     </row>
@@ -1990,7 +1995,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" thickBot="1">
@@ -2015,8 +2020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCE02B9-2DB5-4A42-9333-2D35EC041239}">
   <dimension ref="B2:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B86" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B62" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2031,7 +2036,7 @@
   <sheetData>
     <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B2" s="16" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -2240,7 +2245,7 @@
         <v>58</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>59</v>
@@ -2257,7 +2262,7 @@
         <v>61</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>62</v>
@@ -2341,7 +2346,7 @@
         <v>37</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>31</v>
@@ -2556,7 +2561,7 @@
         <v>108</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>109</v>
@@ -2573,7 +2578,7 @@
         <v>61</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>111</v>
@@ -2685,7 +2690,7 @@
         <v>52</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>34</v>
@@ -2736,7 +2741,7 @@
         <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>130</v>
@@ -2797,10 +2802,10 @@
         <v>135</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>136</v>
@@ -2817,7 +2822,7 @@
         <v>138</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>83</v>
@@ -2848,10 +2853,10 @@
         <v>61</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>131</v>
@@ -2885,7 +2890,7 @@
         <v>147</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>148</v>
@@ -2902,7 +2907,7 @@
         <v>150</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>151</v>
@@ -2919,7 +2924,7 @@
         <v>153</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>154</v>
@@ -2936,7 +2941,7 @@
         <v>156</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>157</v>
@@ -2953,7 +2958,7 @@
         <v>160</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>161</v>
@@ -3028,13 +3033,13 @@
         <v>170</v>
       </c>
       <c r="C68" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>169</v>
@@ -3042,16 +3047,16 @@
     </row>
     <row r="69" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B69" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>169</v>
@@ -3062,10 +3067,10 @@
         <v>58</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>83</v>
@@ -3076,16 +3081,16 @@
     </row>
     <row r="71" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B71" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>169</v>
@@ -3093,16 +3098,16 @@
     </row>
     <row r="72" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B72" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>180</v>
+        <v>353</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>169</v>
@@ -3110,16 +3115,16 @@
     </row>
     <row r="73" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B73" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>183</v>
+        <v>352</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>168</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>169</v>
@@ -3128,7 +3133,7 @@
     <row r="74" spans="2:6" ht="20.100000000000001" customHeight="1"/>
     <row r="75" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B75" s="15" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
@@ -3157,7 +3162,7 @@
         <v>46</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>168</v>
@@ -3174,10 +3179,10 @@
         <v>58</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>83</v>
@@ -3188,16 +3193,16 @@
     </row>
     <row r="79" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B79" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>169</v>
@@ -3205,16 +3210,16 @@
     </row>
     <row r="80" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B80" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>169</v>
@@ -3222,16 +3227,16 @@
     </row>
     <row r="81" spans="2:6" ht="55.5" customHeight="1" thickBot="1">
       <c r="B81" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>169</v>
@@ -3239,16 +3244,16 @@
     </row>
     <row r="82" spans="2:6" ht="55.5" customHeight="1" thickBot="1">
       <c r="B82" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>169</v>
@@ -3256,16 +3261,16 @@
     </row>
     <row r="83" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B83" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>169</v>
@@ -3273,16 +3278,16 @@
     </row>
     <row r="84" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B84" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>169</v>
@@ -3290,16 +3295,16 @@
     </row>
     <row r="85" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B85" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>169</v>
@@ -3307,16 +3312,16 @@
     </row>
     <row r="86" spans="2:6" ht="36.75" customHeight="1" thickBot="1">
       <c r="B86" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>169</v>
@@ -3324,16 +3329,16 @@
     </row>
     <row r="87" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B87" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>168</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>169</v>
@@ -3341,16 +3346,16 @@
     </row>
     <row r="88" spans="2:6" ht="58.5" customHeight="1" thickBot="1">
       <c r="B88" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>169</v>
@@ -3361,10 +3366,10 @@
         <v>61</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>131</v>
@@ -3375,16 +3380,16 @@
     </row>
     <row r="90" spans="2:6" ht="33.75" customHeight="1" thickBot="1">
       <c r="B90" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>169</v>
@@ -3393,7 +3398,7 @@
     <row r="91" spans="2:6" ht="20.100000000000001" customHeight="1"/>
     <row r="92" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B92" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
@@ -3422,7 +3427,7 @@
         <v>46</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>168</v>
@@ -3439,13 +3444,13 @@
         <v>67</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>169</v>
@@ -3453,16 +3458,16 @@
     </row>
     <row r="96" spans="2:6" ht="24.75" customHeight="1" thickBot="1">
       <c r="B96" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>169</v>
@@ -3470,16 +3475,16 @@
     </row>
     <row r="97" spans="2:6" ht="48.75" customHeight="1" thickBot="1">
       <c r="B97" s="5" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>169</v>
@@ -3487,16 +3492,16 @@
     </row>
     <row r="98" spans="2:6" ht="46.5" customHeight="1" thickBot="1">
       <c r="B98" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>169</v>
@@ -3504,13 +3509,13 @@
     </row>
     <row r="99" spans="2:6" ht="19.5" customHeight="1" thickBot="1">
       <c r="B99" s="5" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>83</v>
@@ -3521,16 +3526,16 @@
     </row>
     <row r="100" spans="2:6" ht="33.75" customHeight="1" thickBot="1">
       <c r="B100" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>169</v>
@@ -3538,16 +3543,16 @@
     </row>
     <row r="101" spans="2:6" ht="39.75" customHeight="1" thickBot="1">
       <c r="B101" s="5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>169</v>
@@ -3555,16 +3560,16 @@
     </row>
     <row r="102" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B102" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>169</v>
@@ -3572,16 +3577,16 @@
     </row>
     <row r="103" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B103" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>169</v>
@@ -3592,10 +3597,10 @@
         <v>61</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>131</v>
@@ -3606,16 +3611,16 @@
     </row>
     <row r="105" spans="2:6" ht="42.75" customHeight="1" thickBot="1">
       <c r="B105" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>169</v>
@@ -3623,16 +3628,16 @@
     </row>
     <row r="106" spans="2:6" ht="33.75" customHeight="1" thickBot="1">
       <c r="B106" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>169</v>
@@ -3640,16 +3645,16 @@
     </row>
     <row r="107" spans="2:6" ht="41.25" customHeight="1" thickBot="1">
       <c r="B107" s="5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>60</v>
@@ -3660,10 +3665,10 @@
         <v>52</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>117</v>
@@ -3677,13 +3682,13 @@
         <v>55</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>169</v>
@@ -3691,16 +3696,16 @@
     </row>
     <row r="110" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B110" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>169</v>
@@ -3708,16 +3713,16 @@
     </row>
     <row r="111" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B111" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>169</v>
@@ -3725,16 +3730,16 @@
     </row>
     <row r="112" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B112" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>107</v>
@@ -3742,16 +3747,16 @@
     </row>
     <row r="113" spans="2:6" ht="37.5" customHeight="1" thickBot="1">
       <c r="B113" s="5" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>169</v>
@@ -3759,16 +3764,16 @@
     </row>
     <row r="114" spans="2:6" ht="35.25" customHeight="1" thickBot="1">
       <c r="B114" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>169</v>
@@ -3776,16 +3781,16 @@
     </row>
     <row r="115" spans="2:6" ht="32.25" customHeight="1" thickBot="1">
       <c r="B115" s="5" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>169</v>
@@ -3793,16 +3798,16 @@
     </row>
     <row r="116" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B116" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>169</v>
@@ -3810,16 +3815,16 @@
     </row>
     <row r="117" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B117" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>169</v>
@@ -3827,16 +3832,16 @@
     </row>
     <row r="118" spans="2:6" ht="67.5" customHeight="1" thickBot="1">
       <c r="B118" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>169</v>
@@ -3844,16 +3849,16 @@
     </row>
     <row r="119" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
       <c r="B119" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>169</v>
@@ -3861,16 +3866,16 @@
     </row>
     <row r="120" spans="2:6" ht="75.75" customHeight="1" thickBot="1">
       <c r="B120" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>169</v>
@@ -3878,16 +3883,16 @@
     </row>
     <row r="121" spans="2:6" ht="52.5" customHeight="1" thickBot="1">
       <c r="B121" s="5" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>169</v>
@@ -3895,23 +3900,23 @@
     </row>
     <row r="122" spans="2:6" ht="49.5" customHeight="1" thickBot="1">
       <c r="B122" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F122" s="1"/>
     </row>
     <row r="123" spans="2:6" ht="20.100000000000001" customHeight="1"/>
     <row r="124" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B124" s="16" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C124" s="16"/>
       <c r="D124" s="16"/>
@@ -3937,16 +3942,16 @@
     </row>
     <row r="126" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B126" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>168</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>169</v>
@@ -3991,7 +3996,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B2" s="16" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -4027,94 +4032,94 @@
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="6" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="6" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C8" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="6" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C9" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="6" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="6" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="6" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C14" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="2:5" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="9" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="9" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C16" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="9" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C17" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="20.100000000000001" customHeight="1"/>
     <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B19" s="16" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -4136,7 +4141,7 @@
     </row>
     <row r="21" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B21" s="4" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
@@ -4146,10 +4151,10 @@
     </row>
     <row r="22" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="6" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C22" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/deepstream/配置文件属性.xlsx
+++ b/deepstream/配置文件属性.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\filles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project_git\myresource\deepstream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C456C5C6-EACB-480C-8DF8-28D8D0EB03D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E8EBC4-04D0-4DE5-8B9D-CB4176D611AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{398ED892-0B42-476A-8DF7-FB7766D0B9D6}"/>
   </bookViews>
@@ -2020,8 +2020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCE02B9-2DB5-4A42-9333-2D35EC041239}">
   <dimension ref="B2:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B62" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A125" activeCellId="1" sqref="A93:XFD93 A125:XFD125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2043,20 +2043,20 @@
       <c r="E2" s="16"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="3" spans="2:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2138,20 +2138,20 @@
       <c r="E9" s="16"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="10" spans="2:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2284,20 +2284,20 @@
       <c r="E19" s="16"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="20" spans="2:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2763,20 +2763,20 @@
       <c r="E50" s="16"/>
       <c r="F50" s="12"/>
     </row>
-    <row r="51" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="51" spans="2:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B51" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2994,20 +2994,20 @@
       <c r="E65" s="15"/>
       <c r="F65" s="12"/>
     </row>
-    <row r="66" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="66" spans="2:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B66" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F66" s="11" t="s">
+      <c r="F66" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3140,20 +3140,20 @@
       <c r="E75" s="15"/>
       <c r="F75" s="12"/>
     </row>
-    <row r="76" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="76" spans="2:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B76" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D76" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F76" s="11" t="s">
+      <c r="F76" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3405,20 +3405,20 @@
       <c r="E92" s="15"/>
       <c r="F92" s="12"/>
     </row>
-    <row r="93" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="93" spans="2:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B93" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D93" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E93" s="11" t="s">
+      <c r="E93" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F93" s="11" t="s">
+      <c r="F93" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3923,20 +3923,20 @@
       <c r="E124" s="16"/>
       <c r="F124" s="12"/>
     </row>
-    <row r="125" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="125" spans="2:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B125" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C125" s="11" t="s">
+      <c r="C125" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D125" s="11" t="s">
+      <c r="D125" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E125" s="11" t="s">
+      <c r="E125" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F125" s="11" t="s">
+      <c r="F125" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF18BB6-5B13-4771-81DA-EC983CC23AF9}">
   <dimension ref="B2:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>

--- a/deepstream/配置文件属性.xlsx
+++ b/deepstream/配置文件属性.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project_git\myresource\deepstream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E8EBC4-04D0-4DE5-8B9D-CB4176D611AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E52445F-19C7-4242-9B16-F6DFBEB31224}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{398ED892-0B42-476A-8DF7-FB7766D0B9D6}"/>
   </bookViews>
@@ -224,9 +224,6 @@
     <t>Source Group</t>
   </si>
   <si>
-    <t>num-sources=2</t>
-  </si>
-  <si>
     <t>资源是否有效</t>
   </si>
   <si>
@@ -258,9 +255,6 @@
   </si>
   <si>
     <t>是否开启intra-only解码（开启后帧率很低？）</t>
-  </si>
-  <si>
-    <t>intra-decode-enable=1</t>
   </si>
   <si>
     <t>num-extra-surfaces</t>
@@ -1094,14 +1088,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>sink存储使能</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sink类型, 1: 伪sink 2: EGL based windowed sink (nveglglessink)  3: Encode + File Save (encoder + muxer + filesink)  4: Encode + RTSP streaming  5: Overlay (只对Jetson平台) 6: Message converter + Message broker</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>流的渲染速度 0: 越快越好 1: 同步</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1344,6 +1330,22 @@
   </si>
   <si>
     <t>一帧中IOU区域的height，像素单位</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sink类型, 1: 伪sink 2: EGL based windowed sink (nveglglessink)  3: Encode + 保存文件 (encoder + muxer + filesink)  4: Encode + RTSP 流  5: Overlay (只对Jetson平台) 6: Message converter + Message broker</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sink保存功能的使能</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>intra-decode-enable=1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>num-sources=2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1914,7 +1916,7 @@
   <sheetData>
     <row r="2" spans="2:3" ht="36.950000000000003" customHeight="1" thickBot="1">
       <c r="B2" s="13" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C2" s="14"/>
     </row>
@@ -1995,7 +1997,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" thickBot="1">
@@ -2018,308 +2020,311 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCE02B9-2DB5-4A42-9333-2D35EC041239}">
-  <dimension ref="B2:F126"/>
+  <dimension ref="A2:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A125" activeCellId="1" sqref="A93:XFD93 A125:XFD125"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="42.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="60.625" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="48.375" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="12" width="60.625" customWidth="1"/>
+    <col min="1" max="1" width="42.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="60.625" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="48.375" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="11" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B2" s="16" t="s">
-        <v>323</v>
-      </c>
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A2" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="2:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="B3" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1"/>
-    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B9" s="16" t="s">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A9" s="16" t="s">
         <v>42</v>
       </c>
+      <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="2:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A10" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="B10" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A11" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="1" t="s">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="D14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="2" t="s">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="D15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="1" t="s">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="82.5" customHeight="1" thickBot="1">
+      <c r="A17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="82.5" customHeight="1" thickBot="1">
-      <c r="B17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1"/>
-    <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B19" s="16" t="s">
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A19" s="16" t="s">
         <v>64</v>
       </c>
+      <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="2:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A20" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="B20" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A21" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="58.5" customHeight="1" thickBot="1">
+      <c r="A22" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2329,1649 +2334,1646 @@
         <v>69</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="65.25" customHeight="1" thickBot="1">
+      <c r="A23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="B23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="65.25" customHeight="1" thickBot="1">
-      <c r="B23" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="1" t="s">
+    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A24" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="B24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B24" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="2" t="s">
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="B25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="48" customHeight="1" thickBot="1">
+      <c r="A26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="D27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B25" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="1" t="s">
+    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="48" customHeight="1" thickBot="1">
-      <c r="B26" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="2" t="s">
+    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B27" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="1" t="s">
+    <row r="31" spans="1:5" ht="36" customHeight="1" thickBot="1">
+      <c r="A31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A32" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="39" customHeight="1" thickBot="1">
+      <c r="A33" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A34" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="D34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A35" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A36" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="77.25" customHeight="1" thickBot="1">
+      <c r="A37" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B28" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B29" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="36" customHeight="1" thickBot="1">
-      <c r="B31" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B32" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="39" customHeight="1" thickBot="1">
-      <c r="B33" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B34" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B35" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B36" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="77.25" customHeight="1" thickBot="1">
-      <c r="B37" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D37" s="1" t="s">
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A39" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="20.100000000000001" customHeight="1"/>
-    <row r="39" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B39" s="16" t="s">
-        <v>113</v>
-      </c>
+      <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="12"/>
-    </row>
-    <row r="40" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B40" s="10" t="s">
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A40" s="10" t="s">
         <v>23</v>
       </c>
+      <c r="B40" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="C40" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B41" s="4" t="s">
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A41" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="B41" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="C41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A42" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F41" s="1" t="s">
+      <c r="C42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A44" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A45" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A46" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A47" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="85.5" customHeight="1" thickBot="1">
+      <c r="A48" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B42" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B43" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B45" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B46" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B47" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" ht="85.5" customHeight="1" thickBot="1">
-      <c r="B48" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D48" s="2" t="s">
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A50" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="20.100000000000001" customHeight="1"/>
-    <row r="50" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B50" s="16" t="s">
-        <v>132</v>
-      </c>
+      <c r="B50" s="16"/>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="12"/>
-    </row>
-    <row r="51" spans="2:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A51" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="B51" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B52" s="4" t="s">
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A52" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="B52" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="C52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A53" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B53" s="5" t="s">
-        <v>135</v>
+      <c r="B53" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>327</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A54" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A55" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="72" customHeight="1" thickBot="1">
+      <c r="A56" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A57" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="47.25" customHeight="1" thickBot="1">
+      <c r="A58" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A59" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="60.75" customHeight="1" thickBot="1">
+      <c r="A60" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A61" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="52.5" customHeight="1" thickBot="1">
+      <c r="A62" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B54" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="45.75" customHeight="1" thickBot="1">
-      <c r="B55" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="D62" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A63" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" ht="72" customHeight="1" thickBot="1">
-      <c r="B56" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" ht="49.5" customHeight="1" thickBot="1">
-      <c r="B57" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B58" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" ht="49.5" customHeight="1" thickBot="1">
-      <c r="B59" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" ht="60.75" customHeight="1" thickBot="1">
-      <c r="B60" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B61" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" ht="52.5" customHeight="1" thickBot="1">
-      <c r="B62" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B63" s="5" t="s">
+      <c r="D63" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="E63" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A65" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" ht="20.100000000000001" customHeight="1"/>
-    <row r="65" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B65" s="15" t="s">
-        <v>166</v>
-      </c>
+      <c r="B65" s="15"/>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="12"/>
-    </row>
-    <row r="66" spans="2:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="E65" s="12"/>
+    </row>
+    <row r="66" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A66" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="B66" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F66" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B67" s="4" t="s">
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A67" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="B67" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="C67" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A68" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F67" s="1" t="s">
+      <c r="B68" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="68" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B68" s="5" t="s">
+      <c r="E68" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A69" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E68" s="2" t="s">
+      <c r="B69" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B69" s="4" t="s">
+      <c r="E69" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A70" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A71" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="E69" s="1" t="s">
+      <c r="B71" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B70" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B71" s="4" t="s">
+      <c r="E71" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A72" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D71" s="1" t="s">
+      <c r="B72" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="D72" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B72" s="5" t="s">
+      <c r="E72" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A73" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="B73" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B73" s="4" t="s">
+      <c r="E73" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A75" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" ht="20.100000000000001" customHeight="1"/>
-    <row r="75" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B75" s="15" t="s">
-        <v>180</v>
-      </c>
+      <c r="B75" s="15"/>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="12"/>
-    </row>
-    <row r="76" spans="2:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="E75" s="12"/>
+    </row>
+    <row r="76" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A76" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="B76" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F76" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B77" s="4" t="s">
+    <row r="77" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A77" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="B77" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="C77" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A78" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A79" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B78" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="C79" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A80" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
+      <c r="A81" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
+      <c r="A82" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A83" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A84" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A85" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="36.75" customHeight="1" thickBot="1">
+      <c r="A86" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A87" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="58.5" customHeight="1" thickBot="1">
+      <c r="A88" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="79.5" customHeight="1" thickBot="1">
+      <c r="A89" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A90" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B79" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B80" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" ht="55.5" customHeight="1" thickBot="1">
-      <c r="B81" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" ht="55.5" customHeight="1" thickBot="1">
-      <c r="B82" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B83" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B84" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B85" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" ht="36.75" customHeight="1" thickBot="1">
-      <c r="B86" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B87" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="B88" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" ht="79.5" customHeight="1" thickBot="1">
-      <c r="B89" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B90" s="5" t="s">
+      <c r="D90" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="E90" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A92" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" ht="20.100000000000001" customHeight="1"/>
-    <row r="92" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B92" s="15" t="s">
-        <v>215</v>
-      </c>
+      <c r="B92" s="15"/>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="12"/>
-    </row>
-    <row r="93" spans="2:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="E92" s="12"/>
+    </row>
+    <row r="93" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A93" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="B93" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F93" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B94" s="4" t="s">
+    <row r="94" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A94" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="B94" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="C94" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
+      <c r="A95" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A96" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="48.75" customHeight="1" thickBot="1">
+      <c r="A97" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="46.5" customHeight="1" thickBot="1">
+      <c r="A98" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A99" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A100" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="39.75" customHeight="1" thickBot="1">
+      <c r="A101" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A102" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A103" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="82.5" customHeight="1" thickBot="1">
+      <c r="A104" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" ht="64.5" customHeight="1" thickBot="1">
-      <c r="B95" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="C104" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
+      <c r="A105" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A106" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="41.25" customHeight="1" thickBot="1">
+      <c r="A107" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" ht="24.75" customHeight="1" thickBot="1">
-      <c r="B96" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D96" s="1" t="s">
+      <c r="D107" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A108" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A109" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A110" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A111" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A112" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
+      <c r="A113" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" ht="48.75" customHeight="1" thickBot="1">
-      <c r="B97" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" ht="46.5" customHeight="1" thickBot="1">
-      <c r="B98" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B99" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B100" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D100" s="1" t="s">
+      <c r="D113" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A114" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A115" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A116" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A117" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="67.5" customHeight="1" thickBot="1">
+      <c r="A118" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" ht="39.75" customHeight="1" thickBot="1">
-      <c r="B101" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B102" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B103" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="D118" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="40.5" customHeight="1" thickBot="1">
+      <c r="A119" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" ht="82.5" customHeight="1" thickBot="1">
-      <c r="B104" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="B105" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D105" s="2" t="s">
+      <c r="D119" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="75.75" customHeight="1" thickBot="1">
+      <c r="A120" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="52.5" customHeight="1" thickBot="1">
+      <c r="A121" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B106" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D106" s="1" t="s">
+      <c r="D121" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A122" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6" ht="41.25" customHeight="1" thickBot="1">
-      <c r="B107" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B108" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B109" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B110" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B111" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B112" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6" ht="37.5" customHeight="1" thickBot="1">
-      <c r="B113" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B114" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="115" spans="2:6" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B115" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B116" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B117" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6" ht="67.5" customHeight="1" thickBot="1">
-      <c r="B118" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B119" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6" ht="75.75" customHeight="1" thickBot="1">
-      <c r="B120" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6" ht="52.5" customHeight="1" thickBot="1">
-      <c r="B121" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6" ht="49.5" customHeight="1" thickBot="1">
-      <c r="B122" s="4" t="s">
+      <c r="D122" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="124" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A124" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F122" s="1"/>
-    </row>
-    <row r="123" spans="2:6" ht="20.100000000000001" customHeight="1"/>
-    <row r="124" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B124" s="16" t="s">
-        <v>285</v>
-      </c>
+      <c r="B124" s="16"/>
       <c r="C124" s="16"/>
       <c r="D124" s="16"/>
-      <c r="E124" s="16"/>
-      <c r="F124" s="12"/>
-    </row>
-    <row r="125" spans="2:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="E124" s="12"/>
+    </row>
+    <row r="125" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A125" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="B125" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F125" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B126" s="4" t="s">
+    <row r="126" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A126" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="E126" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B124:E124"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A75:D75"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E23" r:id="rId1" display="http://127.0.0.1/source.mp4uri=rtsp:/127.0.0.1/source1uri=file:/home/ubuntu/source_%25d.mp4" xr:uid="{FA2F2804-E054-4DBE-A303-84EA7D45A982}"/>
+    <hyperlink ref="D23" r:id="rId1" display="http://127.0.0.1/source.mp4uri=rtsp:/127.0.0.1/source1uri=file:/home/ubuntu/source_%25d.mp4" xr:uid="{FA2F2804-E054-4DBE-A303-84EA7D45A982}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3996,7 +3998,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B2" s="16" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -4021,105 +4023,105 @@
         <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C8" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C9" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="6" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="6" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C14" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="2:5" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="9" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="9" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C16" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="9" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C17" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="20.100000000000001" customHeight="1"/>
     <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B19" s="16" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -4141,7 +4143,7 @@
     </row>
     <row r="21" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B21" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
@@ -4151,10 +4153,10 @@
     </row>
     <row r="22" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="6" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C22" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/deepstream/配置文件属性.xlsx
+++ b/deepstream/配置文件属性.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project_git\myresource\deepstream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E52445F-19C7-4242-9B16-F6DFBEB31224}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{398ED892-0B42-476A-8DF7-FB7766D0B9D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HoConfig" sheetId="3" r:id="rId1"/>
     <sheet name="deepstream_app_config.txt" sheetId="1" r:id="rId2"/>
     <sheet name="config_infer_primary.txt" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -228,9 +227,6 @@
   </si>
   <si>
     <t>type</t>
-  </si>
-  <si>
-    <t>资源类型；其他源配置依赖于资源类型1：相机（V4L2）2：URI3：MultiURI（复用URI）４：RTSP５：相机（CSI）（只针对Jetson）</t>
   </si>
   <si>
     <t>整型1/2/3/4/5</t>
@@ -757,27 +753,18 @@
     <t>bitrate</t>
   </si>
   <si>
-    <t>Bitrate to use for encoding, in bits per second. Valid for type=3 and 4.</t>
-  </si>
-  <si>
     <t>bitrate=4000000</t>
   </si>
   <si>
     <t>output-file</t>
   </si>
   <si>
-    <t>Pathname of the output encoded file. Only valid for type=3.</t>
-  </si>
-  <si>
     <t>output-file=/home/ubuntu/output.mp4</t>
   </si>
   <si>
     <t>rtsp-port</t>
   </si>
   <si>
-    <t>Port for the RTSP streaming server; a valid unused port number. Valid for type=4.</t>
-  </si>
-  <si>
     <t>rtsp-port=8554</t>
   </si>
   <si>
@@ -797,12 +784,6 @@
   </si>
   <si>
     <t>overlay-id=1Must be less than the number of overlays supported by HEAD 0.</t>
-  </si>
-  <si>
-    <t>Width of the renderer in pixels.</t>
-  </si>
-  <si>
-    <t>Height of the renderer in pixels.</t>
   </si>
   <si>
     <t>height=1920</t>
@@ -1348,11 +1329,35 @@
     <t>num-sources=2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>输出文件路径，只针对type=3的情况</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于编码的比特率，单位为比特每秒。对于type=3和4有效</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTSP流服务器端口；有效的未使用端口号。针对于type=4.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染宽度，单位：像素</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染高度，单位：像素</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入资源类型        1：相机（V4L2）2：单URI    3：多URI ４：RTSP  ５：相机（CSI)(只针对Jetson）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -1901,7 +1906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7BF031-41B2-47AD-B5AC-D8A59837C158}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1916,7 +1921,7 @@
   <sheetData>
     <row r="2" spans="2:3" ht="36.950000000000003" customHeight="1" thickBot="1">
       <c r="B2" s="13" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C2" s="14"/>
     </row>
@@ -1997,7 +2002,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" thickBot="1">
@@ -2019,11 +2024,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCE02B9-2DB5-4A42-9333-2D35EC041239}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2038,7 +2043,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A2" s="16" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -2247,7 +2252,7 @@
         <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>59</v>
@@ -2264,7 +2269,7 @@
         <v>61</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>62</v>
@@ -2325,13 +2330,13 @@
         <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>31</v>
@@ -2339,16 +2344,16 @@
     </row>
     <row r="23" spans="1:5" ht="65.25" customHeight="1" thickBot="1">
       <c r="A23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>31</v>
@@ -2356,16 +2361,16 @@
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>31</v>
@@ -2373,16 +2378,16 @@
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>31</v>
@@ -2390,16 +2395,16 @@
     </row>
     <row r="26" spans="1:5" ht="48" customHeight="1" thickBot="1">
       <c r="A26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>31</v>
@@ -2410,13 +2415,13 @@
         <v>58</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>60</v>
@@ -2424,16 +2429,16 @@
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>31</v>
@@ -2441,16 +2446,16 @@
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>31</v>
@@ -2458,16 +2463,16 @@
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>31</v>
@@ -2475,16 +2480,16 @@
     </row>
     <row r="31" spans="1:5" ht="36" customHeight="1" thickBot="1">
       <c r="A31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>31</v>
@@ -2492,16 +2497,16 @@
     </row>
     <row r="32" spans="1:5" ht="34.5" customHeight="1" thickBot="1">
       <c r="A32" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>31</v>
@@ -2509,16 +2514,16 @@
     </row>
     <row r="33" spans="1:5" ht="39" customHeight="1" thickBot="1">
       <c r="A33" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>31</v>
@@ -2526,16 +2531,16 @@
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A34" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>31</v>
@@ -2543,33 +2548,33 @@
     </row>
     <row r="35" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
       <c r="A35" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
       <c r="A36" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>31</v>
@@ -2580,13 +2585,13 @@
         <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>60</v>
@@ -2595,7 +2600,7 @@
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A39" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -2624,13 +2629,13 @@
         <v>58</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>60</v>
@@ -2638,16 +2643,16 @@
     </row>
     <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A42" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>31</v>
@@ -2655,16 +2660,16 @@
     </row>
     <row r="43" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
       <c r="A43" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>31</v>
@@ -2672,16 +2677,16 @@
     </row>
     <row r="44" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A44" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>31</v>
@@ -2692,7 +2697,7 @@
         <v>52</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>34</v>
@@ -2709,7 +2714,7 @@
         <v>55</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>34</v>
@@ -2723,16 +2728,16 @@
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A47" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>31</v>
@@ -2743,13 +2748,13 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>60</v>
@@ -2758,7 +2763,7 @@
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A50" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -2787,7 +2792,7 @@
         <v>46</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>30</v>
@@ -2796,24 +2801,24 @@
         <v>43</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A53" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -2821,33 +2826,33 @@
         <v>58</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="45.75" customHeight="1" thickBot="1">
       <c r="A55" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="72" customHeight="1" thickBot="1">
@@ -2855,141 +2860,141 @@
         <v>61</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
       <c r="A57" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="47.25" customHeight="1" thickBot="1">
       <c r="A58" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="E58" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
       <c r="A59" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E59" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="60.75" customHeight="1" thickBot="1">
       <c r="A60" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="E60" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A61" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="52.5" customHeight="1" thickBot="1">
       <c r="A62" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A63" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A65" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
@@ -3018,50 +3023,50 @@
         <v>46</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A68" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A69" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="E69" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3069,13 +3074,13 @@
         <v>58</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>60</v>
@@ -3083,59 +3088,59 @@
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A71" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A72" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A73" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="E73" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A75" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -3164,16 +3169,16 @@
         <v>46</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3181,13 +3186,13 @@
         <v>58</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>60</v>
@@ -3195,172 +3200,172 @@
     </row>
     <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A79" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="E79" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A80" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
       <c r="A81" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E81" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
       <c r="A82" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A83" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="E83" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A84" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C84" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A85" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="E85" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="36.75" customHeight="1" thickBot="1">
       <c r="A86" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A87" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E87" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="58.5" customHeight="1" thickBot="1">
       <c r="A88" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="79.5" customHeight="1" thickBot="1">
@@ -3368,13 +3373,13 @@
         <v>61</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>60</v>
@@ -3382,25 +3387,25 @@
     </row>
     <row r="90" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
       <c r="A90" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A92" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -3429,16 +3434,16 @@
         <v>46</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
@@ -3446,152 +3451,152 @@
         <v>66</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="24.75" customHeight="1" thickBot="1">
       <c r="A96" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="E96" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="48.75" customHeight="1" thickBot="1">
       <c r="A97" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C97" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="46.5" customHeight="1" thickBot="1">
       <c r="A98" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="E98" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
       <c r="A99" s="5" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
       <c r="A100" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="E100" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="39.75" customHeight="1" thickBot="1">
       <c r="A101" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A102" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="E102" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A103" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>231</v>
+        <v>350</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="82.5" customHeight="1" thickBot="1">
@@ -3599,64 +3604,64 @@
         <v>61</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
       <c r="A105" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>234</v>
+        <v>352</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
       <c r="A106" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="41.25" customHeight="1" thickBot="1">
       <c r="A107" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>60</v>
@@ -3667,16 +3672,16 @@
         <v>52</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>242</v>
+        <v>353</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3684,241 +3689,241 @@
         <v>55</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>243</v>
+        <v>354</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A110" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A111" s="5" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A112" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="A113" s="5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
       <c r="A114" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="32.25" customHeight="1" thickBot="1">
       <c r="A115" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A116" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A117" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="67.5" customHeight="1" thickBot="1">
       <c r="A118" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="40.5" customHeight="1" thickBot="1">
       <c r="A119" s="5" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="75.75" customHeight="1" thickBot="1">
       <c r="A120" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="52.5" customHeight="1" thickBot="1">
       <c r="A121" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
       <c r="A122" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E122" s="1"/>
     </row>
     <row r="123" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="124" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A124" s="16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B124" s="16"/>
       <c r="C124" s="16"/>
@@ -3944,19 +3949,19 @@
     </row>
     <row r="126" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A126" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3973,7 +3978,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D23" r:id="rId1" display="http://127.0.0.1/source.mp4uri=rtsp:/127.0.0.1/source1uri=file:/home/ubuntu/source_%25d.mp4" xr:uid="{FA2F2804-E054-4DBE-A303-84EA7D45A982}"/>
+    <hyperlink ref="D23" r:id="rId1" display="http://127.0.0.1/source.mp4uri=rtsp:/127.0.0.1/source1uri=file:/home/ubuntu/source_%25d.mp4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3981,7 +3986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF18BB6-5B13-4771-81DA-EC983CC23AF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3998,7 +4003,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B2" s="16" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -4023,105 +4028,105 @@
         <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="6" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C6" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C8" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="6" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C9" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="6" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="6" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="6" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C14" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="2:5" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="9" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="9" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C16" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="9" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C17" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="20.100000000000001" customHeight="1"/>
     <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B19" s="16" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -4143,7 +4148,7 @@
     </row>
     <row r="21" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B21" s="4" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
@@ -4153,10 +4158,10 @@
     </row>
     <row r="22" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="6" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C22" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/deepstream/配置文件属性.xlsx
+++ b/deepstream/配置文件属性.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project_git\myresource\deepstream\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project_git\nanmi-assets\deepstream\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -395,9 +395,6 @@
     <t>width=1920</t>
   </si>
   <si>
-    <t>enable-padding=0</t>
-  </si>
-  <si>
     <t>GPU ID</t>
   </si>
   <si>
@@ -426,9 +423,6 @@
   </si>
   <si>
     <t>enable-padding</t>
-  </si>
-  <si>
-    <t>在通过添加黑带进行缩放时是否保持源宽高比。</t>
   </si>
   <si>
     <t>整型0,1,2,3</t>
@@ -1351,6 +1345,14 @@
   </si>
   <si>
     <t>输入资源类型        1：相机（V4L2）2：单URI    3：多URI ４：RTSP  ５：相机（CSI)(只针对Jetson）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable-padding=0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在通过添加黑带进行缩放时是否保持源宽高比。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1921,7 +1923,7 @@
   <sheetData>
     <row r="2" spans="2:3" ht="36.950000000000003" customHeight="1" thickBot="1">
       <c r="B2" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C2" s="14"/>
     </row>
@@ -2002,7 +2004,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" thickBot="1">
@@ -2027,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2043,7 +2045,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A2" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -2252,7 +2254,7 @@
         <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>59</v>
@@ -2269,7 +2271,7 @@
         <v>61</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>62</v>
@@ -2330,7 +2332,7 @@
         <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>67</v>
@@ -2353,7 +2355,7 @@
         <v>37</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>31</v>
@@ -2370,7 +2372,7 @@
         <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>31</v>
@@ -2387,7 +2389,7 @@
         <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>31</v>
@@ -2568,7 +2570,7 @@
         <v>105</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>106</v>
@@ -2585,7 +2587,7 @@
         <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>108</v>
@@ -2629,7 +2631,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>59</v>
@@ -2643,10 +2645,10 @@
     </row>
     <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A42" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>30</v>
@@ -2660,10 +2662,10 @@
     </row>
     <row r="43" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
       <c r="A43" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>34</v>
@@ -2677,13 +2679,13 @@
     </row>
     <row r="44" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A44" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>113</v>
@@ -2697,7 +2699,7 @@
         <v>52</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>34</v>
@@ -2714,7 +2716,7 @@
         <v>55</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>34</v>
@@ -2728,16 +2730,16 @@
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A47" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>126</v>
+        <v>355</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>115</v>
+        <v>354</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>31</v>
@@ -2748,13 +2750,13 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>60</v>
@@ -2763,7 +2765,7 @@
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A50" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -2792,7 +2794,7 @@
         <v>46</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>30</v>
@@ -2801,24 +2803,24 @@
         <v>43</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A53" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -2826,33 +2828,33 @@
         <v>58</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="45.75" customHeight="1" thickBot="1">
       <c r="A55" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="72" customHeight="1" thickBot="1">
@@ -2860,141 +2862,141 @@
         <v>61</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
       <c r="A57" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="47.25" customHeight="1" thickBot="1">
       <c r="A58" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
       <c r="A59" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="E59" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="60.75" customHeight="1" thickBot="1">
       <c r="A60" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="E60" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A61" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="52.5" customHeight="1" thickBot="1">
       <c r="A62" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A63" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A65" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
@@ -3023,50 +3025,50 @@
         <v>46</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A68" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A69" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3074,10 +3076,10 @@
         <v>58</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>80</v>
@@ -3088,59 +3090,59 @@
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A71" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A72" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A73" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A75" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -3169,16 +3171,16 @@
         <v>46</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3186,10 +3188,10 @@
         <v>58</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>80</v>
@@ -3200,172 +3202,172 @@
     </row>
     <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A79" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="E79" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A80" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
       <c r="A81" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="E81" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
       <c r="A82" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A83" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="E83" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A84" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A85" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="E85" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="36.75" customHeight="1" thickBot="1">
       <c r="A86" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A87" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="E87" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="58.5" customHeight="1" thickBot="1">
       <c r="A88" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="79.5" customHeight="1" thickBot="1">
@@ -3373,13 +3375,13 @@
         <v>61</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>60</v>
@@ -3387,25 +3389,25 @@
     </row>
     <row r="90" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
       <c r="A90" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A92" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -3434,16 +3436,16 @@
         <v>46</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
@@ -3451,152 +3453,152 @@
         <v>66</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="24.75" customHeight="1" thickBot="1">
       <c r="A96" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="48.75" customHeight="1" thickBot="1">
       <c r="A97" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="46.5" customHeight="1" thickBot="1">
       <c r="A98" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
       <c r="A99" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
       <c r="A100" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="E100" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="39.75" customHeight="1" thickBot="1">
       <c r="A101" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A102" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A103" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="82.5" customHeight="1" thickBot="1">
@@ -3604,64 +3606,64 @@
         <v>61</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
       <c r="A105" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
       <c r="A106" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="E106" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="41.25" customHeight="1" thickBot="1">
       <c r="A107" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>60</v>
@@ -3672,16 +3674,16 @@
         <v>52</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>114</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3689,64 +3691,64 @@
         <v>55</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A110" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="E110" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A111" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="E111" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A112" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>104</v>
@@ -3754,176 +3756,176 @@
     </row>
     <row r="113" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="A113" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
       <c r="A114" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="32.25" customHeight="1" thickBot="1">
       <c r="A115" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A116" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A117" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="67.5" customHeight="1" thickBot="1">
       <c r="A118" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="E118" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="40.5" customHeight="1" thickBot="1">
       <c r="A119" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="75.75" customHeight="1" thickBot="1">
       <c r="A120" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="52.5" customHeight="1" thickBot="1">
       <c r="A121" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
       <c r="A122" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="E122" s="1"/>
     </row>
     <row r="123" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="124" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A124" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B124" s="16"/>
       <c r="C124" s="16"/>
@@ -3949,19 +3951,19 @@
     </row>
     <row r="126" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A126" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="E126" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4003,7 +4005,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B2" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -4028,7 +4030,7 @@
         <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>59</v>
@@ -4039,94 +4041,94 @@
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="2:5" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="20.100000000000001" customHeight="1"/>
     <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B19" s="16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -4148,7 +4150,7 @@
     </row>
     <row r="21" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B21" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
@@ -4158,10 +4160,10 @@
     </row>
     <row r="22" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C22" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/deepstream/配置文件属性.xlsx
+++ b/deepstream/配置文件属性.xlsx
@@ -730,9 +730,6 @@
   </si>
   <si>
     <t>container</t>
-  </si>
-  <si>
-    <t>Container to use for the file save. Only valid for type=3.1: MP42: MKV</t>
   </si>
   <si>
     <t>container=1</t>
@@ -1353,6 +1350,10 @@
   </si>
   <si>
     <t>在通过添加黑带进行缩放时是否保持源宽高比。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于文件保存的容器。只type=3时有效。1: MP4    2: MKV</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1923,7 +1924,7 @@
   <sheetData>
     <row r="2" spans="2:3" ht="36.950000000000003" customHeight="1" thickBot="1">
       <c r="B2" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C2" s="14"/>
     </row>
@@ -2004,7 +2005,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" thickBot="1">
@@ -2029,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2045,7 +2046,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A2" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -2254,7 +2255,7 @@
         <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>59</v>
@@ -2271,7 +2272,7 @@
         <v>61</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>62</v>
@@ -2332,7 +2333,7 @@
         <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>67</v>
@@ -2355,7 +2356,7 @@
         <v>37</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>31</v>
@@ -2372,7 +2373,7 @@
         <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>31</v>
@@ -2389,7 +2390,7 @@
         <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>31</v>
@@ -2570,7 +2571,7 @@
         <v>105</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>106</v>
@@ -2587,7 +2588,7 @@
         <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>108</v>
@@ -2699,7 +2700,7 @@
         <v>52</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>34</v>
@@ -2733,13 +2734,13 @@
         <v>124</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>31</v>
@@ -2750,7 +2751,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>125</v>
@@ -2811,10 +2812,10 @@
         <v>130</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>131</v>
@@ -2831,7 +2832,7 @@
         <v>133</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>80</v>
@@ -2862,10 +2863,10 @@
         <v>61</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>126</v>
@@ -2899,7 +2900,7 @@
         <v>142</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>143</v>
@@ -2916,7 +2917,7 @@
         <v>145</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>146</v>
@@ -2933,7 +2934,7 @@
         <v>148</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>149</v>
@@ -2950,7 +2951,7 @@
         <v>151</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>152</v>
@@ -2967,7 +2968,7 @@
         <v>155</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>156</v>
@@ -3042,10 +3043,10 @@
         <v>165</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>166</v>
@@ -3059,10 +3060,10 @@
         <v>167</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>168</v>
@@ -3076,10 +3077,10 @@
         <v>58</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>80</v>
@@ -3093,7 +3094,7 @@
         <v>169</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>37</v>
@@ -3110,7 +3111,7 @@
         <v>171</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>37</v>
@@ -3127,7 +3128,7 @@
         <v>173</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>163</v>
@@ -3188,10 +3189,10 @@
         <v>58</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>80</v>
@@ -3208,7 +3209,7 @@
         <v>178</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>179</v>
@@ -3225,7 +3226,7 @@
         <v>181</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>182</v>
@@ -3242,7 +3243,7 @@
         <v>184</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>185</v>
@@ -3259,7 +3260,7 @@
         <v>187</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>188</v>
@@ -3276,7 +3277,7 @@
         <v>190</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>191</v>
@@ -3293,7 +3294,7 @@
         <v>193</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>194</v>
@@ -3310,7 +3311,7 @@
         <v>196</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>197</v>
@@ -3361,7 +3362,7 @@
         <v>205</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>206</v>
@@ -3375,10 +3376,10 @@
         <v>61</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>126</v>
@@ -3395,7 +3396,7 @@
         <v>208</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>209</v>
@@ -3436,7 +3437,7 @@
         <v>46</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>163</v>
@@ -3453,10 +3454,10 @@
         <v>66</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>211</v>
@@ -3470,10 +3471,10 @@
         <v>212</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>213</v>
@@ -3504,10 +3505,10 @@
         <v>217</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>218</v>
@@ -3518,13 +3519,13 @@
     </row>
     <row r="99" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
       <c r="A99" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>338</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>80</v>
@@ -3538,13 +3539,13 @@
         <v>219</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>164</v>
@@ -3552,16 +3553,16 @@
     </row>
     <row r="101" spans="1:5" ht="39.75" customHeight="1" thickBot="1">
       <c r="A101" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>164</v>
@@ -3569,16 +3570,16 @@
     </row>
     <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A102" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>164</v>
@@ -3586,16 +3587,16 @@
     </row>
     <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A103" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>164</v>
@@ -3606,10 +3607,10 @@
         <v>61</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>126</v>
@@ -3620,16 +3621,16 @@
     </row>
     <row r="105" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
       <c r="A105" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>164</v>
@@ -3637,16 +3638,16 @@
     </row>
     <row r="106" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
       <c r="A106" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>164</v>
@@ -3654,16 +3655,16 @@
     </row>
     <row r="107" spans="1:5" ht="41.25" customHeight="1" thickBot="1">
       <c r="A107" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="C107" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>60</v>
@@ -3674,10 +3675,10 @@
         <v>52</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>114</v>
@@ -3691,13 +3692,13 @@
         <v>55</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>164</v>
@@ -3705,16 +3706,16 @@
     </row>
     <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A110" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>164</v>
@@ -3722,16 +3723,16 @@
     </row>
     <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A111" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>164</v>
@@ -3739,16 +3740,16 @@
     </row>
     <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A112" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>104</v>
@@ -3756,16 +3757,16 @@
     </row>
     <row r="113" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="A113" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="C113" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>164</v>
@@ -3773,16 +3774,16 @@
     </row>
     <row r="114" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
       <c r="A114" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>164</v>
@@ -3790,16 +3791,16 @@
     </row>
     <row r="115" spans="1:5" ht="32.25" customHeight="1" thickBot="1">
       <c r="A115" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>164</v>
@@ -3807,16 +3808,16 @@
     </row>
     <row r="116" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A116" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>164</v>
@@ -3824,16 +3825,16 @@
     </row>
     <row r="117" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A117" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>164</v>
@@ -3841,16 +3842,16 @@
     </row>
     <row r="118" spans="1:5" ht="67.5" customHeight="1" thickBot="1">
       <c r="A118" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>164</v>
@@ -3858,16 +3859,16 @@
     </row>
     <row r="119" spans="1:5" ht="40.5" customHeight="1" thickBot="1">
       <c r="A119" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>164</v>
@@ -3875,16 +3876,16 @@
     </row>
     <row r="120" spans="1:5" ht="75.75" customHeight="1" thickBot="1">
       <c r="A120" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>164</v>
@@ -3892,16 +3893,16 @@
     </row>
     <row r="121" spans="1:5" ht="52.5" customHeight="1" thickBot="1">
       <c r="A121" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="C121" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>164</v>
@@ -3909,23 +3910,23 @@
     </row>
     <row r="122" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
       <c r="A122" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="E122" s="1"/>
     </row>
     <row r="123" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="124" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A124" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B124" s="16"/>
       <c r="C124" s="16"/>
@@ -3951,16 +3952,16 @@
     </row>
     <row r="126" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A126" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>163</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>164</v>
@@ -3991,8 +3992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4005,7 +4006,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B2" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -4041,94 +4042,94 @@
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="2:5" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="20.100000000000001" customHeight="1"/>
     <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B19" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -4150,7 +4151,7 @@
     </row>
     <row r="21" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B21" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
@@ -4160,10 +4161,10 @@
     </row>
     <row r="22" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/deepstream/配置文件属性.xlsx
+++ b/deepstream/配置文件属性.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HoConfig" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="403">
   <si>
     <t>配置组</t>
   </si>
@@ -1084,10 +1084,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>model-color-format</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>model-engine-file</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1108,10 +1104,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>process-mode</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>network-type</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1128,10 +1120,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>custom-lib-path</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>pre-cluster-threshold</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1152,19 +1140,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>检测类别数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>0：Group Rectange 1：DBSCAN 2：NMS 3:DBSCAN+NMS 4:None</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>cpp中定义的函数名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>编译后得到的so包位置</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1354,6 +1334,214 @@
   </si>
   <si>
     <t>用于文件保存的容器。只type=3时有效。1: MP4    2: MKV</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique-id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>整型，≥0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>整型，≥0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpu-id=1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素的唯一ID。可用于标识元素的输出。默认值15</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>process-mode</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>process-mode=1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique-id=15</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>推理处理模式。默认值1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译后得到的so包位置。默认值字符串”“</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom-lib-path</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom-lib-path=”“</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>推理最大batch_size。默认值1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch-size</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch-size=1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定要跳过进行推断的连续batch数量。默认值0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>interval=0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>整型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infer-on-gie-id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infer-on-gie-id=-1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infer-on-class-ids</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>推理GIE生成的具有此唯一ID的元数据。默认值-1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>推理对具有指定类ID的对象进行操作。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infer-on-class-ids=0:2:3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter-out-class-ids</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略指定类别ID对象的元数据</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter-out-class-ids=0;2;3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw-output-file-write</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>将原始未被处理的推理结果写入文件。默认值0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw-output-file-write=0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw-output-generated-callback</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw-output-generated-callback=</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw-output-generated-userdata</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否输出推理tensor作为buffer元数据。默认值0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>output-tensor-meta</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>output-tensor-meta=0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>output-instance-mask</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络输出中需要实例掩码，并将其附加到元数据。默认值0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>output-instance-mask=0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>model-color-format</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0=Detector, 1=Classifier, 2=Segmentation, 100=Other</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>整型，≥0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测类别数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>output-blob-names</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定模型推理输出的名称</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符型</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1543,7 +1731,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1594,6 +1782,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1924,7 +2115,7 @@
   <sheetData>
     <row r="2" spans="2:3" ht="36.950000000000003" customHeight="1" thickBot="1">
       <c r="B2" s="13" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C2" s="14"/>
     </row>
@@ -2005,7 +2196,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" thickBot="1">
@@ -2030,7 +2221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
@@ -2046,7 +2237,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A2" s="16" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -2255,7 +2446,7 @@
         <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>59</v>
@@ -2333,7 +2524,7 @@
         <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>67</v>
@@ -2356,7 +2547,7 @@
         <v>37</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>31</v>
@@ -2373,7 +2564,7 @@
         <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>31</v>
@@ -2390,7 +2581,7 @@
         <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>31</v>
@@ -2700,7 +2891,7 @@
         <v>52</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>34</v>
@@ -2734,13 +2925,13 @@
         <v>124</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>31</v>
@@ -2751,7 +2942,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>125</v>
@@ -2812,10 +3003,10 @@
         <v>130</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>131</v>
@@ -2832,7 +3023,7 @@
         <v>133</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>80</v>
@@ -2863,10 +3054,10 @@
         <v>61</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>126</v>
@@ -2900,7 +3091,7 @@
         <v>142</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>143</v>
@@ -2917,7 +3108,7 @@
         <v>145</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>146</v>
@@ -2934,7 +3125,7 @@
         <v>148</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>149</v>
@@ -2951,7 +3142,7 @@
         <v>151</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>152</v>
@@ -2968,7 +3159,7 @@
         <v>155</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>156</v>
@@ -3043,10 +3234,10 @@
         <v>165</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>166</v>
@@ -3060,10 +3251,10 @@
         <v>167</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>168</v>
@@ -3077,10 +3268,10 @@
         <v>58</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>80</v>
@@ -3094,7 +3285,7 @@
         <v>169</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>37</v>
@@ -3111,7 +3302,7 @@
         <v>171</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>37</v>
@@ -3128,7 +3319,7 @@
         <v>173</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>163</v>
@@ -3189,10 +3380,10 @@
         <v>58</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>80</v>
@@ -3209,7 +3400,7 @@
         <v>178</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>179</v>
@@ -3226,7 +3417,7 @@
         <v>181</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>182</v>
@@ -3243,7 +3434,7 @@
         <v>184</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>185</v>
@@ -3260,7 +3451,7 @@
         <v>187</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>188</v>
@@ -3277,7 +3468,7 @@
         <v>190</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>191</v>
@@ -3294,7 +3485,7 @@
         <v>193</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>194</v>
@@ -3311,7 +3502,7 @@
         <v>196</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>197</v>
@@ -3362,7 +3553,7 @@
         <v>205</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>206</v>
@@ -3376,10 +3567,10 @@
         <v>61</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>126</v>
@@ -3396,7 +3587,7 @@
         <v>208</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>209</v>
@@ -3437,7 +3628,7 @@
         <v>46</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>163</v>
@@ -3454,10 +3645,10 @@
         <v>66</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>211</v>
@@ -3474,7 +3665,7 @@
         <v>281</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>213</v>
@@ -3508,7 +3699,7 @@
         <v>282</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>218</v>
@@ -3519,13 +3710,13 @@
     </row>
     <row r="99" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
       <c r="A99" s="5" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>80</v>
@@ -3539,10 +3730,10 @@
         <v>219</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>220</v>
@@ -3556,10 +3747,10 @@
         <v>221</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>222</v>
@@ -3573,10 +3764,10 @@
         <v>223</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>224</v>
@@ -3590,7 +3781,7 @@
         <v>225</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>37</v>
@@ -3610,7 +3801,7 @@
         <v>283</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>126</v>
@@ -3624,10 +3815,10 @@
         <v>227</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>228</v>
@@ -3644,7 +3835,7 @@
         <v>230</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>231</v>
@@ -3661,7 +3852,7 @@
         <v>233</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>234</v>
@@ -3675,10 +3866,10 @@
         <v>52</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>114</v>
@@ -3692,10 +3883,10 @@
         <v>55</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>235</v>
@@ -3712,7 +3903,7 @@
         <v>237</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>238</v>
@@ -3729,7 +3920,7 @@
         <v>240</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>241</v>
@@ -3746,7 +3937,7 @@
         <v>243</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>244</v>
@@ -3763,7 +3954,7 @@
         <v>246</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>247</v>
@@ -3811,7 +4002,7 @@
         <v>254</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>37</v>
@@ -3848,7 +4039,7 @@
         <v>260</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>261</v>
@@ -3899,7 +4090,7 @@
         <v>269</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>270</v>
@@ -3916,7 +4107,7 @@
         <v>272</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>273</v>
@@ -3990,187 +4181,356 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E22"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="39.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="60.625" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="7" width="60.625" customWidth="1"/>
+    <col min="1" max="1" width="39.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="60.625" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="36.625" customWidth="1"/>
+    <col min="5" max="6" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B2" s="16" t="s">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A1" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B3" s="10" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="B2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B4" s="4" t="s">
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" t="s">
+        <v>369</v>
+      </c>
+      <c r="D9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C10" t="s">
+        <v>375</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B11" t="s">
+        <v>378</v>
+      </c>
+      <c r="C11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D14" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B16" t="s">
+        <v>389</v>
+      </c>
+      <c r="C16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D16" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B17" t="s">
+        <v>393</v>
+      </c>
+      <c r="C17" t="s">
+        <v>394</v>
+      </c>
+      <c r="D17" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B20" t="s">
+        <v>397</v>
+      </c>
+      <c r="C20" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B21" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B22" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B24" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B26" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="B27" t="s">
+        <v>401</v>
+      </c>
+      <c r="C27" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A29" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+    </row>
+    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A31" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B32" t="s">
         <v>303</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="C16" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="C17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B19" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B20" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B21" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C22" t="s">
-        <v>308</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A29:D29"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/deepstream/配置文件属性.xlsx
+++ b/deepstream/配置文件属性.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HoConfig" sheetId="3" r:id="rId1"/>
@@ -600,40 +600,25 @@
     <t>OSD Group</t>
   </si>
   <si>
-    <t>Enables or disables the On-Screen Display (OSD).</t>
-  </si>
-  <si>
     <t>border-width</t>
   </si>
   <si>
-    <t>Border width of the bounding boxes drawn for objects, in pixels.</t>
-  </si>
-  <si>
     <t>border-width=100 disables the boxes.</t>
   </si>
   <si>
     <t>text-size</t>
   </si>
   <si>
-    <t>Size of the text that describes the objects, in points.</t>
-  </si>
-  <si>
     <t>text-size=16</t>
   </si>
   <si>
     <t>text-color</t>
   </si>
   <si>
-    <t>The color of the text that describes the objects, in RGBA format.</t>
-  </si>
-  <si>
     <t>text-color=0;0;0.7;1 #Dark Blue</t>
   </si>
   <si>
     <t>text-bg-color</t>
-  </si>
-  <si>
-    <t>The background color of the text that describes the objects, in RGBA format.</t>
   </si>
   <si>
     <t>text-bg-color=0;0;0;0.5 #Semi-transparent black</t>
@@ -1542,6 +1527,26 @@
   </si>
   <si>
     <t>字符型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>使能On-Screen Display (OSD).</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像上文字大小</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbox的边框宽度，单位：像素</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字颜色 RGBA format.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>边界框颜色 RGBA format.</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1771,6 +1776,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1782,9 +1790,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2114,10 +2119,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="36.950000000000003" customHeight="1" thickBot="1">
-      <c r="B2" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="C2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B3" s="10" t="s">
@@ -2196,7 +2201,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" thickBot="1">
@@ -2221,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E126"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2236,12 +2241,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="A2" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -2331,12 +2336,12 @@
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -2446,7 +2451,7 @@
         <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>59</v>
@@ -2463,7 +2468,7 @@
         <v>61</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>62</v>
@@ -2477,12 +2482,12 @@
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -2524,7 +2529,7 @@
         <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>67</v>
@@ -2547,7 +2552,7 @@
         <v>37</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>31</v>
@@ -2564,7 +2569,7 @@
         <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>31</v>
@@ -2581,7 +2586,7 @@
         <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>31</v>
@@ -2762,7 +2767,7 @@
         <v>105</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>106</v>
@@ -2779,7 +2784,7 @@
         <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>108</v>
@@ -2793,12 +2798,12 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -2891,7 +2896,7 @@
         <v>52</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>34</v>
@@ -2925,13 +2930,13 @@
         <v>124</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>31</v>
@@ -2942,7 +2947,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>125</v>
@@ -2956,12 +2961,12 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
       <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3003,10 +3008,10 @@
         <v>130</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>131</v>
@@ -3023,7 +3028,7 @@
         <v>133</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>80</v>
@@ -3054,10 +3059,10 @@
         <v>61</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>126</v>
@@ -3091,7 +3096,7 @@
         <v>142</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>143</v>
@@ -3108,7 +3113,7 @@
         <v>145</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>146</v>
@@ -3125,7 +3130,7 @@
         <v>148</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>149</v>
@@ -3142,7 +3147,7 @@
         <v>151</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>152</v>
@@ -3159,7 +3164,7 @@
         <v>155</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>156</v>
@@ -3187,12 +3192,12 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
       <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3234,10 +3239,10 @@
         <v>165</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>166</v>
@@ -3251,10 +3256,10 @@
         <v>167</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>168</v>
@@ -3268,10 +3273,10 @@
         <v>58</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>80</v>
@@ -3285,7 +3290,7 @@
         <v>169</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>37</v>
@@ -3302,7 +3307,7 @@
         <v>171</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>37</v>
@@ -3319,7 +3324,7 @@
         <v>173</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>163</v>
@@ -3333,12 +3338,12 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
       <c r="E75" s="12"/>
     </row>
     <row r="76" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3363,7 +3368,7 @@
         <v>46</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>176</v>
+        <v>398</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>163</v>
@@ -3380,10 +3385,10 @@
         <v>58</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>80</v>
@@ -3394,16 +3399,16 @@
     </row>
     <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A79" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>164</v>
@@ -3411,16 +3416,16 @@
     </row>
     <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A80" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>181</v>
+        <v>399</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>164</v>
@@ -3428,16 +3433,16 @@
     </row>
     <row r="81" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
       <c r="A81" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>184</v>
+        <v>401</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>164</v>
@@ -3445,16 +3450,16 @@
     </row>
     <row r="82" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
       <c r="A82" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>187</v>
+        <v>402</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>164</v>
@@ -3462,16 +3467,16 @@
     </row>
     <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A83" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>164</v>
@@ -3479,16 +3484,16 @@
     </row>
     <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A84" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>164</v>
@@ -3496,16 +3501,16 @@
     </row>
     <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A85" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>164</v>
@@ -3513,16 +3518,16 @@
     </row>
     <row r="86" spans="1:5" ht="36.75" customHeight="1" thickBot="1">
       <c r="A86" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>164</v>
@@ -3530,16 +3535,16 @@
     </row>
     <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A87" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>163</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>164</v>
@@ -3547,16 +3552,16 @@
     </row>
     <row r="88" spans="1:5" ht="58.5" customHeight="1" thickBot="1">
       <c r="A88" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>164</v>
@@ -3567,10 +3572,10 @@
         <v>61</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>126</v>
@@ -3581,16 +3586,16 @@
     </row>
     <row r="90" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
       <c r="A90" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>164</v>
@@ -3598,12 +3603,12 @@
     </row>
     <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A92" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
+      <c r="A92" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
       <c r="E92" s="12"/>
     </row>
     <row r="93" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3628,7 +3633,7 @@
         <v>46</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>163</v>
@@ -3645,13 +3650,13 @@
         <v>66</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>164</v>
@@ -3659,16 +3664,16 @@
     </row>
     <row r="96" spans="1:5" ht="24.75" customHeight="1" thickBot="1">
       <c r="A96" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>164</v>
@@ -3676,16 +3681,16 @@
     </row>
     <row r="97" spans="1:5" ht="48.75" customHeight="1" thickBot="1">
       <c r="A97" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>163</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>164</v>
@@ -3693,16 +3698,16 @@
     </row>
     <row r="98" spans="1:5" ht="46.5" customHeight="1" thickBot="1">
       <c r="A98" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>164</v>
@@ -3710,13 +3715,13 @@
     </row>
     <row r="99" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
       <c r="A99" s="5" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>80</v>
@@ -3727,16 +3732,16 @@
     </row>
     <row r="100" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
       <c r="A100" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>164</v>
@@ -3744,16 +3749,16 @@
     </row>
     <row r="101" spans="1:5" ht="39.75" customHeight="1" thickBot="1">
       <c r="A101" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>164</v>
@@ -3761,16 +3766,16 @@
     </row>
     <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A102" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>164</v>
@@ -3778,16 +3783,16 @@
     </row>
     <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A103" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>164</v>
@@ -3798,10 +3803,10 @@
         <v>61</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>126</v>
@@ -3812,16 +3817,16 @@
     </row>
     <row r="105" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
       <c r="A105" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>164</v>
@@ -3829,16 +3834,16 @@
     </row>
     <row r="106" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
       <c r="A106" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>164</v>
@@ -3846,16 +3851,16 @@
     </row>
     <row r="107" spans="1:5" ht="41.25" customHeight="1" thickBot="1">
       <c r="A107" s="5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>60</v>
@@ -3866,10 +3871,10 @@
         <v>52</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>114</v>
@@ -3883,13 +3888,13 @@
         <v>55</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>164</v>
@@ -3897,16 +3902,16 @@
     </row>
     <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A110" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>164</v>
@@ -3914,16 +3919,16 @@
     </row>
     <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A111" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>164</v>
@@ -3931,16 +3936,16 @@
     </row>
     <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A112" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>104</v>
@@ -3948,16 +3953,16 @@
     </row>
     <row r="113" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="A113" s="5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>164</v>
@@ -3965,16 +3970,16 @@
     </row>
     <row r="114" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
       <c r="A114" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>164</v>
@@ -3982,16 +3987,16 @@
     </row>
     <row r="115" spans="1:5" ht="32.25" customHeight="1" thickBot="1">
       <c r="A115" s="5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>164</v>
@@ -3999,16 +4004,16 @@
     </row>
     <row r="116" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A116" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>164</v>
@@ -4016,16 +4021,16 @@
     </row>
     <row r="117" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A117" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>164</v>
@@ -4033,16 +4038,16 @@
     </row>
     <row r="118" spans="1:5" ht="67.5" customHeight="1" thickBot="1">
       <c r="A118" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>164</v>
@@ -4050,16 +4055,16 @@
     </row>
     <row r="119" spans="1:5" ht="40.5" customHeight="1" thickBot="1">
       <c r="A119" s="5" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>164</v>
@@ -4067,16 +4072,16 @@
     </row>
     <row r="120" spans="1:5" ht="75.75" customHeight="1" thickBot="1">
       <c r="A120" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>164</v>
@@ -4084,16 +4089,16 @@
     </row>
     <row r="121" spans="1:5" ht="52.5" customHeight="1" thickBot="1">
       <c r="A121" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>164</v>
@@ -4101,27 +4106,27 @@
     </row>
     <row r="122" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
       <c r="A122" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E122" s="1"/>
     </row>
     <row r="123" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="124" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A124" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="B124" s="16"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="16"/>
+      <c r="A124" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B124" s="17"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
       <c r="E124" s="12"/>
     </row>
     <row r="125" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -4143,16 +4148,16 @@
     </row>
     <row r="126" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A126" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>163</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>164</v>
@@ -4183,7 +4188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -4197,12 +4202,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A1" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="A1" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
@@ -4226,274 +4231,274 @@
         <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" t="s">
         <v>353</v>
-      </c>
-      <c r="D4" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B5" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D5" t="s">
         <v>352</v>
-      </c>
-      <c r="D5" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B6" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C6" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B9" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C9" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D9" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B10" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C10" t="s">
-        <v>375</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>376</v>
+        <v>370</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C11" t="s">
-        <v>379</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>380</v>
+        <v>374</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B12" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B13" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C13" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D13" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D14" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B16" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C16" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D16" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B17" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C17" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D17" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B19" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B20" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C20" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B21" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B22" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B24" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B26" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B27" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C27" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="9"/>
     </row>
     <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A29" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
+      <c r="A29" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A30" s="10" t="s">
@@ -4511,7 +4516,7 @@
     </row>
     <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A31" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
@@ -4521,10 +4526,10 @@
     </row>
     <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B32" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/deepstream/配置文件属性.xlsx
+++ b/deepstream/配置文件属性.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HoConfig" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="409">
   <si>
     <t>配置组</t>
   </si>
@@ -1510,43 +1510,71 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>检测类别数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>output-blob-names</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>使能On-Screen Display (OSD).</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像上文字大小</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbox的边框宽度，单位：像素</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字颜色 RGBA format.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>边界框颜色 RGBA format.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>整型，≥0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>检测类别数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>output-blob-names</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定模型推理输出的名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>使能On-Screen Display (OSD).</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>图像上文字大小</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbox的边框宽度，单位：像素</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>文字颜色 RGBA format.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>边界框颜色 RGBA format.</t>
+    <t>整型，≥0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>network-mode</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>network-mode=0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:FP32，1:FP16，2:INT8。默认值0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>output-io-formats</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定绑定输出层的数据类型和顺序。对于未指定的层，默认为 FP32 和 CHW 。以分号分隔的格式列表。&lt;output-layer1-name&gt;:&lt;data-type&gt;:&lt;order&gt;;&lt;output-layer2-name&gt;:&lt;data-type&gt;:&lt;order&gt;
+数据类型应该是 [fp32, fp16, int32, int8] 之一
+顺序应该是 [chw, chw2, chw4, hwc8, chw16, chw32] 之一</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>分号分隔的字符串数组。对于检测器 output-blob-names=coverage;bbox
+对于多类别分类器 output-blob-names =
+coverage_attrib1;coverage_attrib2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1736,7 +1764,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1790,6 +1818,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2226,7 +2257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
@@ -3368,7 +3399,7 @@
         <v>46</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>163</v>
@@ -3402,7 +3433,7 @@
         <v>176</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>309</v>
@@ -3419,7 +3450,7 @@
         <v>178</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>309</v>
@@ -3436,7 +3467,7 @@
         <v>180</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>324</v>
@@ -3453,7 +3484,7 @@
         <v>182</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>324</v>
@@ -4186,10 +4217,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4427,115 +4458,137 @@
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>287</v>
+        <v>403</v>
       </c>
       <c r="B20" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="C20" t="s">
-        <v>393</v>
+        <v>402</v>
+      </c>
+      <c r="D20" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B21" t="s">
-        <v>295</v>
+        <v>392</v>
+      </c>
+      <c r="C21" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B22" t="s">
-        <v>394</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
+      </c>
+      <c r="B23" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="9" t="s">
+    <row r="26" spans="1:4" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="9" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="B26" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B27" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="84" customHeight="1">
+      <c r="A28" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="C28" t="s">
         <v>395</v>
       </c>
-      <c r="B27" t="s">
-        <v>396</v>
-      </c>
-      <c r="C27" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="9"/>
-    </row>
-    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A29" s="17" t="s">
+    </row>
+    <row r="29" spans="1:4" ht="116.25" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A31" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-    </row>
-    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A30" s="10" t="s">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+    </row>
+    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A32" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B32" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D32" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A31" s="4" t="s">
+    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A33" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="6" t="s">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>298</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A31:D31"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/deepstream/配置文件属性.xlsx
+++ b/deepstream/配置文件属性.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HoConfig" sheetId="3" r:id="rId1"/>
@@ -420,9 +420,6 @@
   </si>
   <si>
     <t>复用器输出的高</t>
-  </si>
-  <si>
-    <t>enable-padding</t>
   </si>
   <si>
     <t>整型0,1,2,3</t>
@@ -1575,6 +1572,10 @@
     <t>分号分隔的字符串数组。对于检测器 output-blob-names=coverage;bbox
 对于多类别分类器 output-blob-names =
 coverage_attrib1;coverage_attrib2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable-padding</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1807,6 +1808,9 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1818,9 +1822,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2150,10 +2151,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="36.950000000000003" customHeight="1" thickBot="1">
-      <c r="B2" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="C2" s="15"/>
+      <c r="B2" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B3" s="10" t="s">
@@ -2232,7 +2233,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" thickBot="1">
@@ -2257,8 +2258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E126"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2272,12 +2273,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="A2" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -2367,12 +2368,12 @@
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -2482,7 +2483,7 @@
         <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>59</v>
@@ -2499,7 +2500,7 @@
         <v>61</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>62</v>
@@ -2513,12 +2514,12 @@
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -2560,7 +2561,7 @@
         <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>67</v>
@@ -2583,7 +2584,7 @@
         <v>37</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>31</v>
@@ -2600,7 +2601,7 @@
         <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>31</v>
@@ -2617,7 +2618,7 @@
         <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>31</v>
@@ -2798,7 +2799,7 @@
         <v>105</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>106</v>
@@ -2815,7 +2816,7 @@
         <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>108</v>
@@ -2829,12 +2830,12 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -2927,7 +2928,7 @@
         <v>52</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>34</v>
@@ -2958,16 +2959,16 @@
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A47" s="4" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>31</v>
@@ -2978,13 +2979,13 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>60</v>
@@ -2992,12 +2993,12 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A50" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
+      <c r="A50" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
       <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3022,7 +3023,7 @@
         <v>46</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>30</v>
@@ -3031,24 +3032,24 @@
         <v>43</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A53" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3056,33 +3057,33 @@
         <v>58</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="45.75" customHeight="1" thickBot="1">
       <c r="A55" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="72" customHeight="1" thickBot="1">
@@ -3090,33 +3091,33 @@
         <v>61</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
       <c r="A57" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="47.25" customHeight="1" thickBot="1">
@@ -3124,111 +3125,111 @@
         <v>118</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="E58" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
       <c r="A59" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="E59" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="60.75" customHeight="1" thickBot="1">
       <c r="A60" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="E60" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A61" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="52.5" customHeight="1" thickBot="1">
       <c r="A62" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A63" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A65" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
+      <c r="A65" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
       <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3253,50 +3254,50 @@
         <v>46</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A68" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A69" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="E69" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3304,10 +3305,10 @@
         <v>58</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>80</v>
@@ -3318,63 +3319,63 @@
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A71" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A72" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A73" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A75" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
+      <c r="A75" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
       <c r="E75" s="12"/>
     </row>
     <row r="76" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3399,16 +3400,16 @@
         <v>46</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3416,10 +3417,10 @@
         <v>58</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>80</v>
@@ -3430,172 +3431,172 @@
     </row>
     <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A79" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="E79" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A80" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
       <c r="A81" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="E81" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
       <c r="A82" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A83" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="E83" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A84" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C84" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A85" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="E85" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="36.75" customHeight="1" thickBot="1">
       <c r="A86" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A87" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="58.5" customHeight="1" thickBot="1">
       <c r="A88" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="79.5" customHeight="1" thickBot="1">
@@ -3603,13 +3604,13 @@
         <v>61</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>60</v>
@@ -3617,29 +3618,29 @@
     </row>
     <row r="90" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
       <c r="A90" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A92" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
+      <c r="A92" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
       <c r="E92" s="12"/>
     </row>
     <row r="93" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3664,16 +3665,16 @@
         <v>46</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
@@ -3681,152 +3682,152 @@
         <v>66</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="24.75" customHeight="1" thickBot="1">
       <c r="A96" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="E96" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="48.75" customHeight="1" thickBot="1">
       <c r="A97" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C97" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="46.5" customHeight="1" thickBot="1">
       <c r="A98" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="E98" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
       <c r="A99" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>327</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
       <c r="A100" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="E100" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="39.75" customHeight="1" thickBot="1">
       <c r="A101" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A102" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="E102" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A103" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="82.5" customHeight="1" thickBot="1">
@@ -3834,64 +3835,64 @@
         <v>61</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
       <c r="A105" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="E105" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
       <c r="A106" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="E106" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="41.25" customHeight="1" thickBot="1">
       <c r="A107" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="C107" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>60</v>
@@ -3902,16 +3903,16 @@
         <v>52</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>114</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3919,64 +3920,64 @@
         <v>55</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A110" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="E110" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A111" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="E111" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A112" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>104</v>
@@ -3984,180 +3985,180 @@
     </row>
     <row r="113" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="A113" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="C113" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
       <c r="A114" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="32.25" customHeight="1" thickBot="1">
       <c r="A115" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A116" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A117" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="67.5" customHeight="1" thickBot="1">
       <c r="A118" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="E118" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="40.5" customHeight="1" thickBot="1">
       <c r="A119" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="75.75" customHeight="1" thickBot="1">
       <c r="A120" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="52.5" customHeight="1" thickBot="1">
       <c r="A121" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="C121" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
       <c r="A122" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="E122" s="1"/>
     </row>
     <row r="123" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="124" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A124" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="B124" s="17"/>
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
+      <c r="A124" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B124" s="18"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="18"/>
       <c r="E124" s="12"/>
     </row>
     <row r="125" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -4179,19 +4180,19 @@
     </row>
     <row r="126" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A126" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4219,7 +4220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -4233,12 +4234,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A1" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="A1" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
@@ -4262,296 +4263,296 @@
         <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D5" t="s">
         <v>351</v>
-      </c>
-      <c r="B5" t="s">
-        <v>354</v>
-      </c>
-      <c r="C5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D5" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D6" t="s">
         <v>357</v>
-      </c>
-      <c r="B6" t="s">
-        <v>356</v>
-      </c>
-      <c r="C6" t="s">
-        <v>355</v>
-      </c>
-      <c r="D6" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D7" t="s">
         <v>360</v>
-      </c>
-      <c r="B7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C7" t="s">
-        <v>347</v>
-      </c>
-      <c r="D7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D8" t="s">
         <v>362</v>
-      </c>
-      <c r="C8" t="s">
-        <v>347</v>
-      </c>
-      <c r="D8" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D9" t="s">
         <v>365</v>
-      </c>
-      <c r="B9" t="s">
-        <v>368</v>
-      </c>
-      <c r="C9" t="s">
-        <v>364</v>
-      </c>
-      <c r="D9" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B10" t="s">
+        <v>368</v>
+      </c>
+      <c r="C10" t="s">
         <v>369</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="13" t="s">
         <v>370</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B11" t="s">
         <v>372</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>373</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="13" t="s">
         <v>374</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B13" t="s">
+        <v>377</v>
+      </c>
+      <c r="C13" t="s">
         <v>376</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>378</v>
-      </c>
-      <c r="C13" t="s">
-        <v>377</v>
-      </c>
-      <c r="D13" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D14" t="s">
         <v>380</v>
-      </c>
-      <c r="D14" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B16" t="s">
+        <v>383</v>
+      </c>
+      <c r="C16" t="s">
+        <v>382</v>
+      </c>
+      <c r="D16" t="s">
         <v>385</v>
-      </c>
-      <c r="B16" t="s">
-        <v>384</v>
-      </c>
-      <c r="C16" t="s">
-        <v>383</v>
-      </c>
-      <c r="D16" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B17" t="s">
         <v>387</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>388</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>389</v>
-      </c>
-      <c r="D17" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B20" t="s">
+        <v>404</v>
+      </c>
+      <c r="C20" t="s">
+        <v>401</v>
+      </c>
+      <c r="D20" t="s">
         <v>403</v>
-      </c>
-      <c r="B20" t="s">
-        <v>405</v>
-      </c>
-      <c r="C20" t="s">
-        <v>402</v>
-      </c>
-      <c r="D20" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C21" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="84" customHeight="1">
       <c r="A28" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="C28" t="s">
         <v>394</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>408</v>
-      </c>
-      <c r="C28" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="116.25" customHeight="1">
       <c r="A29" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>406</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="9"/>
     </row>
     <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A31" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="A31" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
     </row>
     <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A32" s="10" t="s">
@@ -4569,7 +4570,7 @@
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A33" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
@@ -4579,10 +4580,10 @@
     </row>
     <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/deepstream/配置文件属性.xlsx
+++ b/deepstream/配置文件属性.xlsx
@@ -658,9 +658,6 @@
   </si>
   <si>
     <t>show-clock</t>
-  </si>
-  <si>
-    <t>Enables or disables overlay of the clock time on the frame.</t>
   </si>
   <si>
     <t>show-clock=1</t>
@@ -1576,6 +1573,10 @@
   </si>
   <si>
     <t>enable-padding</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enables or disables overlay of the clock time on the frame.</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2152,7 +2153,7 @@
   <sheetData>
     <row r="2" spans="2:3" ht="36.950000000000003" customHeight="1" thickBot="1">
       <c r="B2" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C2" s="16"/>
     </row>
@@ -2233,7 +2234,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" thickBot="1">
@@ -2258,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2274,7 +2275,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A2" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2483,7 +2484,7 @@
         <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>59</v>
@@ -2500,7 +2501,7 @@
         <v>61</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>62</v>
@@ -2561,7 +2562,7 @@
         <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>67</v>
@@ -2584,7 +2585,7 @@
         <v>37</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>31</v>
@@ -2601,7 +2602,7 @@
         <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>31</v>
@@ -2618,7 +2619,7 @@
         <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>31</v>
@@ -2799,7 +2800,7 @@
         <v>105</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>106</v>
@@ -2816,7 +2817,7 @@
         <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>108</v>
@@ -2928,7 +2929,7 @@
         <v>52</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>34</v>
@@ -2959,16 +2960,16 @@
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A47" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>31</v>
@@ -2979,7 +2980,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>124</v>
@@ -3040,10 +3041,10 @@
         <v>129</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>130</v>
@@ -3060,7 +3061,7 @@
         <v>132</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>80</v>
@@ -3091,10 +3092,10 @@
         <v>61</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>125</v>
@@ -3128,7 +3129,7 @@
         <v>141</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>142</v>
@@ -3145,7 +3146,7 @@
         <v>144</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>145</v>
@@ -3162,7 +3163,7 @@
         <v>147</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>148</v>
@@ -3179,7 +3180,7 @@
         <v>150</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>151</v>
@@ -3196,7 +3197,7 @@
         <v>154</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>155</v>
@@ -3271,10 +3272,10 @@
         <v>164</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>165</v>
@@ -3288,10 +3289,10 @@
         <v>166</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>167</v>
@@ -3305,10 +3306,10 @@
         <v>58</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>80</v>
@@ -3322,7 +3323,7 @@
         <v>168</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>37</v>
@@ -3339,7 +3340,7 @@
         <v>170</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>37</v>
@@ -3356,7 +3357,7 @@
         <v>172</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>162</v>
@@ -3400,7 +3401,7 @@
         <v>46</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>162</v>
@@ -3417,10 +3418,10 @@
         <v>58</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>80</v>
@@ -3434,10 +3435,10 @@
         <v>175</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>176</v>
@@ -3451,10 +3452,10 @@
         <v>177</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>178</v>
@@ -3468,10 +3469,10 @@
         <v>179</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>180</v>
@@ -3485,10 +3486,10 @@
         <v>181</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>182</v>
@@ -3505,7 +3506,7 @@
         <v>184</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>185</v>
@@ -3522,7 +3523,7 @@
         <v>187</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>188</v>
@@ -3539,7 +3540,7 @@
         <v>190</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>191</v>
@@ -3570,13 +3571,13 @@
         <v>195</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>196</v>
+        <v>408</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>163</v>
@@ -3584,16 +3585,16 @@
     </row>
     <row r="88" spans="1:5" ht="58.5" customHeight="1" thickBot="1">
       <c r="A88" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>163</v>
@@ -3604,10 +3605,10 @@
         <v>61</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>125</v>
@@ -3618,16 +3619,16 @@
     </row>
     <row r="90" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
       <c r="A90" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>163</v>
@@ -3636,7 +3637,7 @@
     <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A92" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
@@ -3665,7 +3666,7 @@
         <v>46</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>162</v>
@@ -3682,13 +3683,13 @@
         <v>66</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>163</v>
@@ -3696,16 +3697,16 @@
     </row>
     <row r="96" spans="1:5" ht="24.75" customHeight="1" thickBot="1">
       <c r="A96" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>163</v>
@@ -3713,16 +3714,16 @@
     </row>
     <row r="97" spans="1:5" ht="48.75" customHeight="1" thickBot="1">
       <c r="A97" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>163</v>
@@ -3730,16 +3731,16 @@
     </row>
     <row r="98" spans="1:5" ht="46.5" customHeight="1" thickBot="1">
       <c r="A98" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>163</v>
@@ -3747,13 +3748,13 @@
     </row>
     <row r="99" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
       <c r="A99" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>80</v>
@@ -3764,16 +3765,16 @@
     </row>
     <row r="100" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
       <c r="A100" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>163</v>
@@ -3781,16 +3782,16 @@
     </row>
     <row r="101" spans="1:5" ht="39.75" customHeight="1" thickBot="1">
       <c r="A101" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>163</v>
@@ -3798,16 +3799,16 @@
     </row>
     <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A102" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>163</v>
@@ -3815,16 +3816,16 @@
     </row>
     <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A103" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>163</v>
@@ -3835,10 +3836,10 @@
         <v>61</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>125</v>
@@ -3849,16 +3850,16 @@
     </row>
     <row r="105" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
       <c r="A105" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>163</v>
@@ -3866,16 +3867,16 @@
     </row>
     <row r="106" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
       <c r="A106" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>163</v>
@@ -3883,16 +3884,16 @@
     </row>
     <row r="107" spans="1:5" ht="41.25" customHeight="1" thickBot="1">
       <c r="A107" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="C107" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>60</v>
@@ -3903,10 +3904,10 @@
         <v>52</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>114</v>
@@ -3920,13 +3921,13 @@
         <v>55</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>163</v>
@@ -3934,16 +3935,16 @@
     </row>
     <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A110" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>163</v>
@@ -3951,16 +3952,16 @@
     </row>
     <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A111" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>163</v>
@@ -3968,16 +3969,16 @@
     </row>
     <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A112" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>104</v>
@@ -3985,16 +3986,16 @@
     </row>
     <row r="113" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="A113" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="C113" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>163</v>
@@ -4002,16 +4003,16 @@
     </row>
     <row r="114" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
       <c r="A114" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>163</v>
@@ -4019,16 +4020,16 @@
     </row>
     <row r="115" spans="1:5" ht="32.25" customHeight="1" thickBot="1">
       <c r="A115" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>163</v>
@@ -4036,16 +4037,16 @@
     </row>
     <row r="116" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A116" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>163</v>
@@ -4053,16 +4054,16 @@
     </row>
     <row r="117" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A117" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>163</v>
@@ -4070,16 +4071,16 @@
     </row>
     <row r="118" spans="1:5" ht="67.5" customHeight="1" thickBot="1">
       <c r="A118" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>163</v>
@@ -4087,16 +4088,16 @@
     </row>
     <row r="119" spans="1:5" ht="40.5" customHeight="1" thickBot="1">
       <c r="A119" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>163</v>
@@ -4104,16 +4105,16 @@
     </row>
     <row r="120" spans="1:5" ht="75.75" customHeight="1" thickBot="1">
       <c r="A120" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>163</v>
@@ -4121,16 +4122,16 @@
     </row>
     <row r="121" spans="1:5" ht="52.5" customHeight="1" thickBot="1">
       <c r="A121" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="C121" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>163</v>
@@ -4138,23 +4139,23 @@
     </row>
     <row r="122" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
       <c r="A122" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="E122" s="1"/>
     </row>
     <row r="123" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="124" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A124" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B124" s="18"/>
       <c r="C124" s="18"/>
@@ -4180,16 +4181,16 @@
     </row>
     <row r="126" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A126" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>163</v>
@@ -4220,8 +4221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4235,7 +4236,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A1" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -4263,284 +4264,284 @@
         <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D5" t="s">
         <v>350</v>
-      </c>
-      <c r="B5" t="s">
-        <v>353</v>
-      </c>
-      <c r="C5" t="s">
-        <v>346</v>
-      </c>
-      <c r="D5" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D6" t="s">
         <v>356</v>
-      </c>
-      <c r="B6" t="s">
-        <v>355</v>
-      </c>
-      <c r="C6" t="s">
-        <v>354</v>
-      </c>
-      <c r="D6" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D7" t="s">
         <v>359</v>
-      </c>
-      <c r="B7" t="s">
-        <v>358</v>
-      </c>
-      <c r="C7" t="s">
-        <v>346</v>
-      </c>
-      <c r="D7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D8" t="s">
         <v>361</v>
-      </c>
-      <c r="C8" t="s">
-        <v>346</v>
-      </c>
-      <c r="D8" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D9" t="s">
         <v>364</v>
-      </c>
-      <c r="B9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C9" t="s">
-        <v>363</v>
-      </c>
-      <c r="D9" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C10" t="s">
         <v>368</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="13" t="s">
         <v>369</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B11" t="s">
         <v>371</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>372</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="13" t="s">
         <v>373</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B13" t="s">
+        <v>376</v>
+      </c>
+      <c r="C13" t="s">
         <v>375</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>377</v>
-      </c>
-      <c r="C13" t="s">
-        <v>376</v>
-      </c>
-      <c r="D13" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D14" t="s">
         <v>379</v>
-      </c>
-      <c r="D14" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B16" t="s">
+        <v>382</v>
+      </c>
+      <c r="C16" t="s">
+        <v>381</v>
+      </c>
+      <c r="D16" t="s">
         <v>384</v>
-      </c>
-      <c r="B16" t="s">
-        <v>383</v>
-      </c>
-      <c r="C16" t="s">
-        <v>382</v>
-      </c>
-      <c r="D16" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B17" t="s">
         <v>386</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>387</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>388</v>
-      </c>
-      <c r="D17" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B20" t="s">
+        <v>403</v>
+      </c>
+      <c r="C20" t="s">
+        <v>400</v>
+      </c>
+      <c r="D20" t="s">
         <v>402</v>
-      </c>
-      <c r="B20" t="s">
-        <v>404</v>
-      </c>
-      <c r="C20" t="s">
-        <v>401</v>
-      </c>
-      <c r="D20" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="84" customHeight="1">
       <c r="A28" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="C28" t="s">
         <v>393</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="C28" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="116.25" customHeight="1">
       <c r="A29" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>405</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -4548,7 +4549,7 @@
     </row>
     <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A31" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -4570,7 +4571,7 @@
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A33" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
@@ -4580,10 +4581,10 @@
     </row>
     <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/deepstream/配置文件属性.xlsx
+++ b/deepstream/配置文件属性.xlsx
@@ -885,14 +885,556 @@
     <t>file-loop=1</t>
   </si>
   <si>
+    <t>丢帧的间隔  例如，5表示解码器每隔五帧输出一次； 0表示没有丢帧。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type of CUDA memory element is to allocate for output buffers.0 (cuda-pinned-mem): host/pinned memory allocated with cudaMallocHost().1 (cuda-device-mem): Device memory allocated with cudaMalloc().2 (cuda-unified-mem): Unified memory allocated with cudaMallocManaged().</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>流的渲染速度 0: 越快越好 1: 同步</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>The ID of the source whose buffers this sink must use. The source ID is contained in the source group name. For example, for group [source1] source-id=1.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>为输出缓冲区分配的CUDA插件内存类型.0 (nvbuf-mem-default): a platform-specific default1 (nvbuf-mem-cuda-pinned): pinned/host CUDA memory2 (nvbuf-mem-cuda-device): Device CUDA memory3 (nvbuf-mem-cuda-unified): Unified CUDA memoryFor dGPU: All values are valid.For Jetson: Only 0 (zero) Is valid.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Property</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class-attrs-all</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>net-sacle-factor</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>model-engine-file</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>labelfile-path</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>num-detected-classes</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>interval</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gite-unique-id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>network-type</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster-mode</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>maintain-aspect-ratio</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>parse-bbox-func-name</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre-cluster-threshold</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>nms-iou-threshold</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:RGB 1:BGR</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>engine文件位置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>label文件位置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：Group Rectange 1：DBSCAN 2：NMS 3:DBSCAN+NMS 4:None</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpp中定义的函数名称</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>NMS IOU阈值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sink组件的相关配置。表示了输出（如显示、文件渲染、编码、文件保存）。一个管道可以包含多个sink。组的命名须为[sink0]， [sink1], ...</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Application Group</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置组</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>uri=file:///home/ubuntu/source.mp4       uri=</t>
+    </r>
     <r>
       <rPr>
+        <u/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="10"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
+      <t>http://127.0.0.1/source.mp4           uri=rtsp://127.0.0.1/source1             uri=file:///home/ubuntu/source_%d.mp4</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用器输出的宽</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配给nvinfer实例的唯一组件ID。用于标识实例生成的metadata数据。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type of CUDA memory element is to allocate for output buffers.0 (nvbuf-mem-default): a platform-specific default1 (nvbuf-mem-cuda-pinned): pinned/host CUDA memory2 (nvbuf-mem-cuda-device): Device CUDA memory3 (nvbuf-mem-cuda-unified): Unified CUDA memoryFor dGPU: All values are valid.For Jetson: Only 0 (zero) is valid.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type of CUDA memory the element is to allocate for output buffers.0 (nvbuf-mem-default, a platform-specific default1 (nvbuf-mem-cuda-pinned): pinned/host CUDA memory.2 (nvbuf-mem-cuda-device): Device CUDA memory.3 (nvbuf-mem-cuda-unified): Unified CUDA memory.For dGPU: All values are valid.For Jetson: Only 0 (zero) is valid.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type of CUDA memory the element is to allocate for output buffers.0 (nvbuf-mem-default): a platform-specific default1 (nvbuf-mem-cuda-pinned): pinned/host CUDA memory2 (nvbuf-mem-cuda-device): Device CUDA memory3 (nvbuf-mem-cuda-unified): Unified CUDA memoryFor dGPU: All values are valid.For Jetson: Only 0 (zero) is valid.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>整型, &gt;0</t>
+  </si>
+  <si>
+    <t>整型, ≥0</t>
+  </si>
+  <si>
+    <t>整型,0, 1, 2, or 3</t>
+  </si>
+  <si>
+    <t>整型, &gt;0整型, &gt;0</t>
+  </si>
+  <si>
+    <t>Semicolon separated 整型 array</t>
+  </si>
+  <si>
+    <t>整型, 0, 1, or 2</t>
+  </si>
+  <si>
+    <t>整型, 1, 2, 3, 4, 5, or 6</t>
+  </si>
+  <si>
+    <t>整型,0 or 1</t>
+  </si>
+  <si>
+    <t>整型, 1 or 2</t>
+  </si>
+  <si>
+    <t>整型</t>
+  </si>
+  <si>
+    <t>整型, &gt;=1</t>
+  </si>
+  <si>
+    <t>整型, 0≤iv≤MAX_INT</t>
+  </si>
+  <si>
+    <t>整型0, 1, 256, or 257</t>
+  </si>
+  <si>
+    <t>整型, &gt;=0</t>
+  </si>
+  <si>
+    <t>Connection 字符串 of the backend server (type=6).</t>
+  </si>
+  <si>
+    <t>R:G:B:A 浮点型,0≤R,G,B,A≤1</t>
+  </si>
+  <si>
+    <t>R;G;B;A 浮点型,0≤R,G,B,A≤1</t>
+  </si>
+  <si>
+    <t>保存文件时的编码格式 1: H.264 (硬件)2: H.265 (硬件)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpu-id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>多gpu时，使用的gpu编号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pathname for the low-level tracker configuration file.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enables batch processing across multiple streams.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pathname for the low-level tracker implementation library.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一帧中IOU区域的width，像素单位</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一帧中IOU区域的height，像素单位</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sink类型, 1: 伪sink 2: EGL based windowed sink (nveglglessink)  3: Encode + 保存文件 (encoder + muxer + filesink)  4: Encode + RTSP 流  5: Overlay (只对Jetson平台) 6: Message converter + Message broker</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sink保存功能的使能</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>intra-decode-enable=1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>num-sources=2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出文件路径，只针对type=3的情况</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于编码的比特率，单位为比特每秒。对于type=3和4有效</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTSP流服务器端口；有效的未使用端口号。针对于type=4.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染宽度，单位：像素</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染高度，单位：像素</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入资源类型        1：相机（V4L2）2：单URI    3：多URI ４：RTSP  ５：相机（CSI)(只针对Jetson）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable-padding=0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在通过添加黑带进行缩放时是否保持源宽高比。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于文件保存的容器。只type=3时有效。1: MP4    2: MKV</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique-id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>整型，≥0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>整型，≥0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpu-id=1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素的唯一ID。可用于标识元素的输出。默认值15</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>process-mode</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>process-mode=1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique-id=15</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>推理处理模式。默认值1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译后得到的so包位置。默认值字符串”“</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom-lib-path</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom-lib-path=”“</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>推理最大batch_size。默认值1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch-size</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch-size=1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定要跳过进行推断的连续batch数量。默认值0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>interval=0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>整型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infer-on-gie-id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infer-on-gie-id=-1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infer-on-class-ids</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>推理GIE生成的具有此唯一ID的元数据。默认值-1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>推理对具有指定类ID的对象进行操作。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infer-on-class-ids=0:2:3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter-out-class-ids</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略指定类别ID对象的元数据</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter-out-class-ids=0;2;3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw-output-file-write</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>将原始未被处理的推理结果写入文件。默认值0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw-output-file-write=0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw-output-generated-callback</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw-output-generated-callback=</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw-output-generated-userdata</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否输出推理tensor作为buffer元数据。默认值0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>output-tensor-meta</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>output-tensor-meta=0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>output-instance-mask</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络输出中需要实例掩码，并将其附加到元数据。默认值0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>output-instance-mask=0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>model-color-format</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0=Detector, 1=Classifier, 2=Segmentation, 100=Other</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测类别数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>output-blob-names</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>使能On-Screen Display (OSD).</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像上文字大小</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbox的边框宽度，单位：像素</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字颜色 RGBA format.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>边界框颜色 RGBA format.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>整型，≥0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>整型，≥0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>network-mode</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>network-mode=0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:FP32，1:FP16，2:INT8。默认值0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>output-io-formats</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定绑定输出层的数据类型和顺序。对于未指定的层，默认为 FP32 和 CHW 。以分号分隔的格式列表。&lt;output-layer1-name&gt;:&lt;data-type&gt;:&lt;order&gt;;&lt;output-layer2-name&gt;:&lt;data-type&gt;:&lt;order&gt;
+数据类型应该是 [fp32, fp16, int32, int8] 之一
+顺序应该是 [chw, chw2, chw4, hwc8, chw16, chw32] 之一</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>分号分隔的字符串数组。对于检测器 output-blob-names=coverage;bbox
+对于多类别分类器 output-blob-names =
+coverage_attrib1;coverage_attrib2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable-padding</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enables or disables overlay of the clock time on the frame.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>为输出缓存分配的内存类型。</t>
     </r>
     <r>
@@ -912,7 +1454,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>平台默认类型</t>
+      <t>平台默认类型；</t>
     </r>
     <r>
       <rPr>
@@ -950,7 +1492,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>内存</t>
+      <t>内存；</t>
     </r>
     <r>
       <rPr>
@@ -959,7 +1501,26 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2(nvbuf-mem-cuda-device):device CUDA memory3(nvbuf-mem-cuda-unified):unified CUDA memory</t>
+      <t>2(nvbuf-mem-cuda-device):device CUDA memory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3(nvbuf-mem-cuda-unified):unified CUDA memory</t>
     </r>
     <r>
       <rPr>
@@ -1028,555 +1589,6 @@
       </rPr>
       <t>有效</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>丢帧的间隔  例如，5表示解码器每隔五帧输出一次； 0表示没有丢帧。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type of CUDA memory element is to allocate for output buffers.0 (cuda-pinned-mem): host/pinned memory allocated with cudaMallocHost().1 (cuda-device-mem): Device memory allocated with cudaMalloc().2 (cuda-unified-mem): Unified memory allocated with cudaMallocManaged().</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>流的渲染速度 0: 越快越好 1: 同步</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>The ID of the source whose buffers this sink must use. The source ID is contained in the source group name. For example, for group [source1] source-id=1.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>为输出缓冲区分配的CUDA插件内存类型.0 (nvbuf-mem-default): a platform-specific default1 (nvbuf-mem-cuda-pinned): pinned/host CUDA memory2 (nvbuf-mem-cuda-device): Device CUDA memory3 (nvbuf-mem-cuda-unified): Unified CUDA memoryFor dGPU: All values are valid.For Jetson: Only 0 (zero) Is valid.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Property</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Class-attrs-all</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>net-sacle-factor</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>model-engine-file</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>labelfile-path</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>num-detected-classes</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>interval</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gite-unique-id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>network-type</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>cluster-mode</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>maintain-aspect-ratio</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>parse-bbox-func-name</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre-cluster-threshold</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>nms-iou-threshold</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:RGB 1:BGR</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>engine文件位置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>label文件位置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：Group Rectange 1：DBSCAN 2：NMS 3:DBSCAN+NMS 4:None</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpp中定义的函数名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>NMS IOU阈值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sink组件的相关配置。表示了输出（如显示、文件渲染、编码、文件保存）。一个管道可以包含多个sink。组的命名须为[sink0]， [sink1], ...</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Application Group</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置组</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>uri=file:///home/ubuntu/source.mp4       uri=</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://127.0.0.1/source.mp4           uri=rtsp://127.0.0.1/source1             uri=file:///home/ubuntu/source_%d.mp4</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>复用器输出的宽</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>分配给nvinfer实例的唯一组件ID。用于标识实例生成的metadata数据。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type of CUDA memory element is to allocate for output buffers.0 (nvbuf-mem-default): a platform-specific default1 (nvbuf-mem-cuda-pinned): pinned/host CUDA memory2 (nvbuf-mem-cuda-device): Device CUDA memory3 (nvbuf-mem-cuda-unified): Unified CUDA memoryFor dGPU: All values are valid.For Jetson: Only 0 (zero) is valid.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type of CUDA memory the element is to allocate for output buffers.0 (nvbuf-mem-default, a platform-specific default1 (nvbuf-mem-cuda-pinned): pinned/host CUDA memory.2 (nvbuf-mem-cuda-device): Device CUDA memory.3 (nvbuf-mem-cuda-unified): Unified CUDA memory.For dGPU: All values are valid.For Jetson: Only 0 (zero) is valid.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type of CUDA memory the element is to allocate for output buffers.0 (nvbuf-mem-default): a platform-specific default1 (nvbuf-mem-cuda-pinned): pinned/host CUDA memory2 (nvbuf-mem-cuda-device): Device CUDA memory3 (nvbuf-mem-cuda-unified): Unified CUDA memoryFor dGPU: All values are valid.For Jetson: Only 0 (zero) is valid.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>整型, &gt;0</t>
-  </si>
-  <si>
-    <t>整型, ≥0</t>
-  </si>
-  <si>
-    <t>整型,0, 1, 2, or 3</t>
-  </si>
-  <si>
-    <t>整型, &gt;0整型, &gt;0</t>
-  </si>
-  <si>
-    <t>Semicolon separated 整型 array</t>
-  </si>
-  <si>
-    <t>整型, 0, 1, or 2</t>
-  </si>
-  <si>
-    <t>整型, 1, 2, 3, 4, 5, or 6</t>
-  </si>
-  <si>
-    <t>整型,0 or 1</t>
-  </si>
-  <si>
-    <t>整型, 1 or 2</t>
-  </si>
-  <si>
-    <t>整型</t>
-  </si>
-  <si>
-    <t>整型, &gt;=1</t>
-  </si>
-  <si>
-    <t>整型, 0≤iv≤MAX_INT</t>
-  </si>
-  <si>
-    <t>整型0, 1, 256, or 257</t>
-  </si>
-  <si>
-    <t>整型, &gt;=0</t>
-  </si>
-  <si>
-    <t>Connection 字符串 of the backend server (type=6).</t>
-  </si>
-  <si>
-    <t>R:G:B:A 浮点型,0≤R,G,B,A≤1</t>
-  </si>
-  <si>
-    <t>R;G;B;A 浮点型,0≤R,G,B,A≤1</t>
-  </si>
-  <si>
-    <t>保存文件时的编码格式 1: H.264 (硬件)2: H.265 (硬件)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gpu-id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>多gpu时，使用的gpu编号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pathname for the low-level tracker configuration file.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enables batch processing across multiple streams.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pathname for the low-level tracker implementation library.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>一帧中IOU区域的width，像素单位</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>一帧中IOU区域的height，像素单位</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sink类型, 1: 伪sink 2: EGL based windowed sink (nveglglessink)  3: Encode + 保存文件 (encoder + muxer + filesink)  4: Encode + RTSP 流  5: Overlay (只对Jetson平台) 6: Message converter + Message broker</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sink保存功能的使能</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>intra-decode-enable=1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>num-sources=2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出文件路径，只针对type=3的情况</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于编码的比特率，单位为比特每秒。对于type=3和4有效</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>RTSP流服务器端口；有效的未使用端口号。针对于type=4.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>渲染宽度，单位：像素</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>渲染高度，单位：像素</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入资源类型        1：相机（V4L2）2：单URI    3：多URI ４：RTSP  ５：相机（CSI)(只针对Jetson）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>enable-padding=0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>在通过添加黑带进行缩放时是否保持源宽高比。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于文件保存的容器。只type=3时有效。1: MP4    2: MKV</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique-id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>整型，≥0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>整型，≥0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gpu-id=1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素的唯一ID。可用于标识元素的输出。默认值15</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>process-mode</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>process-mode=1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique-id=15</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>推理处理模式。默认值1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>编译后得到的so包位置。默认值字符串”“</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>custom-lib-path</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>custom-lib-path=”“</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>推理最大batch_size。默认值1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>batch-size</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>batch-size=1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定要跳过进行推断的连续batch数量。默认值0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>interval=0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>整型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>infer-on-gie-id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>infer-on-gie-id=-1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>infer-on-class-ids</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>推理GIE生成的具有此唯一ID的元数据。默认值-1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>推理对具有指定类ID的对象进行操作。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>infer-on-class-ids=0:2:3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>filter-out-class-ids</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略指定类别ID对象的元数据</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>filter-out-class-ids=0;2;3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>raw-output-file-write</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>布尔型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>将原始未被处理的推理结果写入文件。默认值0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>raw-output-file-write=0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>raw-output-generated-callback</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>raw-output-generated-callback=</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>raw-output-generated-userdata</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>布尔型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否输出推理tensor作为buffer元数据。默认值0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>output-tensor-meta</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>output-tensor-meta=0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>output-instance-mask</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络输出中需要实例掩码，并将其附加到元数据。默认值0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>布尔型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>output-instance-mask=0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>model-color-format</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0=Detector, 1=Classifier, 2=Segmentation, 100=Other</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测类别数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>output-blob-names</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>使能On-Screen Display (OSD).</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>图像上文字大小</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbox的边框宽度，单位：像素</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>文字颜色 RGBA format.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>边界框颜色 RGBA format.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>整型，≥0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>整型，≥0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>network-mode</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>network-mode=0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:FP32，1:FP16，2:INT8。默认值0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>output-io-formats</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定绑定输出层的数据类型和顺序。对于未指定的层，默认为 FP32 和 CHW 。以分号分隔的格式列表。&lt;output-layer1-name&gt;:&lt;data-type&gt;:&lt;order&gt;;&lt;output-layer2-name&gt;:&lt;data-type&gt;:&lt;order&gt;
-数据类型应该是 [fp32, fp16, int32, int8] 之一
-顺序应该是 [chw, chw2, chw4, hwc8, chw16, chw32] 之一</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>分号分隔的字符串数组。对于检测器 output-blob-names=coverage;bbox
-对于多类别分类器 output-blob-names =
-coverage_attrib1;coverage_attrib2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>enable-padding</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enables or disables overlay of the clock time on the frame.</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2153,7 +2165,7 @@
   <sheetData>
     <row r="2" spans="2:3" ht="36.950000000000003" customHeight="1" thickBot="1">
       <c r="B2" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C2" s="16"/>
     </row>
@@ -2234,7 +2246,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" thickBot="1">
@@ -2259,8 +2271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2275,7 +2287,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A2" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2484,7 +2496,7 @@
         <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>59</v>
@@ -2501,7 +2513,7 @@
         <v>61</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>271</v>
+        <v>408</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>62</v>
@@ -2562,7 +2574,7 @@
         <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>67</v>
@@ -2585,7 +2597,7 @@
         <v>37</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>31</v>
@@ -2602,7 +2614,7 @@
         <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>31</v>
@@ -2619,7 +2631,7 @@
         <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>31</v>
@@ -2800,7 +2812,7 @@
         <v>105</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>106</v>
@@ -2817,7 +2829,7 @@
         <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>108</v>
@@ -2929,7 +2941,7 @@
         <v>52</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>34</v>
@@ -2960,16 +2972,16 @@
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A47" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>31</v>
@@ -2980,7 +2992,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>124</v>
@@ -3041,10 +3053,10 @@
         <v>129</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>130</v>
@@ -3061,7 +3073,7 @@
         <v>132</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>80</v>
@@ -3092,10 +3104,10 @@
         <v>61</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>125</v>
@@ -3129,7 +3141,7 @@
         <v>141</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>142</v>
@@ -3146,7 +3158,7 @@
         <v>144</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>145</v>
@@ -3163,7 +3175,7 @@
         <v>147</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>148</v>
@@ -3180,7 +3192,7 @@
         <v>150</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>151</v>
@@ -3197,7 +3209,7 @@
         <v>154</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>155</v>
@@ -3272,10 +3284,10 @@
         <v>164</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>165</v>
@@ -3289,10 +3301,10 @@
         <v>166</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>167</v>
@@ -3306,10 +3318,10 @@
         <v>58</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>80</v>
@@ -3323,7 +3335,7 @@
         <v>168</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>37</v>
@@ -3340,7 +3352,7 @@
         <v>170</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>37</v>
@@ -3357,7 +3369,7 @@
         <v>172</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>162</v>
@@ -3401,7 +3413,7 @@
         <v>46</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>162</v>
@@ -3418,10 +3430,10 @@
         <v>58</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>80</v>
@@ -3435,10 +3447,10 @@
         <v>175</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>176</v>
@@ -3452,10 +3464,10 @@
         <v>177</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>178</v>
@@ -3469,10 +3481,10 @@
         <v>179</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>180</v>
@@ -3486,10 +3498,10 @@
         <v>181</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>182</v>
@@ -3506,7 +3518,7 @@
         <v>184</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>185</v>
@@ -3523,7 +3535,7 @@
         <v>187</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>188</v>
@@ -3540,7 +3552,7 @@
         <v>190</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>191</v>
@@ -3571,7 +3583,7 @@
         <v>195</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>162</v>
@@ -3591,7 +3603,7 @@
         <v>198</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>199</v>
@@ -3605,10 +3617,10 @@
         <v>61</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>125</v>
@@ -3625,7 +3637,7 @@
         <v>201</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>202</v>
@@ -3666,7 +3678,7 @@
         <v>46</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>162</v>
@@ -3683,10 +3695,10 @@
         <v>66</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>204</v>
@@ -3700,10 +3712,10 @@
         <v>205</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>206</v>
@@ -3734,10 +3746,10 @@
         <v>210</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>211</v>
@@ -3748,13 +3760,13 @@
     </row>
     <row r="99" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
       <c r="A99" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>80</v>
@@ -3768,10 +3780,10 @@
         <v>212</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>213</v>
@@ -3785,10 +3797,10 @@
         <v>214</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>215</v>
@@ -3802,10 +3814,10 @@
         <v>216</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>217</v>
@@ -3819,7 +3831,7 @@
         <v>218</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>37</v>
@@ -3836,10 +3848,10 @@
         <v>61</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>125</v>
@@ -3853,10 +3865,10 @@
         <v>220</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>221</v>
@@ -3873,7 +3885,7 @@
         <v>223</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>224</v>
@@ -3890,7 +3902,7 @@
         <v>226</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>227</v>
@@ -3904,10 +3916,10 @@
         <v>52</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>114</v>
@@ -3921,10 +3933,10 @@
         <v>55</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>228</v>
@@ -3941,7 +3953,7 @@
         <v>230</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>231</v>
@@ -3958,7 +3970,7 @@
         <v>233</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>234</v>
@@ -3975,7 +3987,7 @@
         <v>236</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>237</v>
@@ -3992,7 +4004,7 @@
         <v>239</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>240</v>
@@ -4040,7 +4052,7 @@
         <v>247</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>37</v>
@@ -4077,7 +4089,7 @@
         <v>253</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>254</v>
@@ -4128,7 +4140,7 @@
         <v>262</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>263</v>
@@ -4145,7 +4157,7 @@
         <v>265</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>266</v>
@@ -4236,7 +4248,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A1" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -4264,284 +4276,284 @@
         <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5" t="s">
         <v>349</v>
-      </c>
-      <c r="B5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C5" t="s">
-        <v>345</v>
-      </c>
-      <c r="D5" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" t="s">
         <v>355</v>
-      </c>
-      <c r="B6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C6" t="s">
-        <v>353</v>
-      </c>
-      <c r="D6" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D7" t="s">
         <v>358</v>
-      </c>
-      <c r="B7" t="s">
-        <v>357</v>
-      </c>
-      <c r="C7" t="s">
-        <v>345</v>
-      </c>
-      <c r="D7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D8" t="s">
         <v>360</v>
-      </c>
-      <c r="C8" t="s">
-        <v>345</v>
-      </c>
-      <c r="D8" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D9" t="s">
         <v>363</v>
-      </c>
-      <c r="B9" t="s">
-        <v>366</v>
-      </c>
-      <c r="C9" t="s">
-        <v>362</v>
-      </c>
-      <c r="D9" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C10" t="s">
         <v>367</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="13" t="s">
         <v>368</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B11" t="s">
         <v>370</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>371</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="13" t="s">
         <v>372</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B13" t="s">
+        <v>375</v>
+      </c>
+      <c r="C13" t="s">
         <v>374</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>376</v>
-      </c>
-      <c r="C13" t="s">
-        <v>375</v>
-      </c>
-      <c r="D13" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D14" t="s">
         <v>378</v>
-      </c>
-      <c r="D14" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B16" t="s">
+        <v>381</v>
+      </c>
+      <c r="C16" t="s">
+        <v>380</v>
+      </c>
+      <c r="D16" t="s">
         <v>383</v>
-      </c>
-      <c r="B16" t="s">
-        <v>382</v>
-      </c>
-      <c r="C16" t="s">
-        <v>381</v>
-      </c>
-      <c r="D16" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B17" t="s">
         <v>385</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>386</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>387</v>
-      </c>
-      <c r="D17" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B20" t="s">
+        <v>402</v>
+      </c>
+      <c r="C20" t="s">
+        <v>399</v>
+      </c>
+      <c r="D20" t="s">
         <v>401</v>
-      </c>
-      <c r="B20" t="s">
-        <v>403</v>
-      </c>
-      <c r="C20" t="s">
-        <v>400</v>
-      </c>
-      <c r="D20" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="84" customHeight="1">
       <c r="A28" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="C28" t="s">
         <v>392</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="C28" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="116.25" customHeight="1">
       <c r="A29" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -4549,7 +4561,7 @@
     </row>
     <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A31" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -4571,7 +4583,7 @@
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A33" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
@@ -4581,10 +4593,10 @@
     </row>
     <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/deepstream/配置文件属性.xlsx
+++ b/deepstream/配置文件属性.xlsx
@@ -886,10 +886,6 @@
   </si>
   <si>
     <t>丢帧的间隔  例如，5表示解码器每隔五帧输出一次； 0表示没有丢帧。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type of CUDA memory element is to allocate for output buffers.0 (cuda-pinned-mem): host/pinned memory allocated with cudaMallocHost().1 (cuda-device-mem): Device memory allocated with cudaMalloc().2 (cuda-unified-mem): Unified memory allocated with cudaMallocManaged().</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1589,6 +1585,10 @@
       </rPr>
       <t>有效</t>
     </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type of CUDA memory element is to allocate for output buffers.0 (cuda-pinned-mem): host/pinned memory allocated with cudaMallocHost().1 (cuda-device-mem): Device memory allocated with cudaMalloc().2 (cuda-unified-mem): Unified memory allocated with cudaMallocManaged().</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2165,7 +2165,7 @@
   <sheetData>
     <row r="2" spans="2:3" ht="36.950000000000003" customHeight="1" thickBot="1">
       <c r="B2" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C2" s="16"/>
     </row>
@@ -2246,7 +2246,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" thickBot="1">
@@ -2271,8 +2271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2287,7 +2287,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A2" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2496,7 +2496,7 @@
         <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>59</v>
@@ -2513,7 +2513,7 @@
         <v>61</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>62</v>
@@ -2574,7 +2574,7 @@
         <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>67</v>
@@ -2597,7 +2597,7 @@
         <v>37</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>31</v>
@@ -2614,7 +2614,7 @@
         <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>31</v>
@@ -2631,7 +2631,7 @@
         <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>31</v>
@@ -2829,7 +2829,7 @@
         <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>272</v>
+        <v>408</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>108</v>
@@ -2941,7 +2941,7 @@
         <v>52</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>34</v>
@@ -2972,16 +2972,16 @@
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A47" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>31</v>
@@ -2992,7 +2992,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>124</v>
@@ -3053,10 +3053,10 @@
         <v>129</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>130</v>
@@ -3073,7 +3073,7 @@
         <v>132</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>80</v>
@@ -3104,10 +3104,10 @@
         <v>61</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>125</v>
@@ -3141,7 +3141,7 @@
         <v>141</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>142</v>
@@ -3158,7 +3158,7 @@
         <v>144</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>145</v>
@@ -3175,7 +3175,7 @@
         <v>147</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>148</v>
@@ -3192,7 +3192,7 @@
         <v>150</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>151</v>
@@ -3209,7 +3209,7 @@
         <v>154</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>155</v>
@@ -3284,10 +3284,10 @@
         <v>164</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>165</v>
@@ -3301,10 +3301,10 @@
         <v>166</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>167</v>
@@ -3318,10 +3318,10 @@
         <v>58</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>80</v>
@@ -3335,7 +3335,7 @@
         <v>168</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>37</v>
@@ -3352,7 +3352,7 @@
         <v>170</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>37</v>
@@ -3369,7 +3369,7 @@
         <v>172</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>162</v>
@@ -3413,7 +3413,7 @@
         <v>46</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>162</v>
@@ -3430,10 +3430,10 @@
         <v>58</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>80</v>
@@ -3447,10 +3447,10 @@
         <v>175</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>176</v>
@@ -3464,10 +3464,10 @@
         <v>177</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>178</v>
@@ -3481,10 +3481,10 @@
         <v>179</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>180</v>
@@ -3498,10 +3498,10 @@
         <v>181</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>182</v>
@@ -3518,7 +3518,7 @@
         <v>184</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>185</v>
@@ -3535,7 +3535,7 @@
         <v>187</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>188</v>
@@ -3552,7 +3552,7 @@
         <v>190</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>191</v>
@@ -3583,7 +3583,7 @@
         <v>195</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>162</v>
@@ -3603,7 +3603,7 @@
         <v>198</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>199</v>
@@ -3617,10 +3617,10 @@
         <v>61</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>125</v>
@@ -3637,7 +3637,7 @@
         <v>201</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>202</v>
@@ -3678,7 +3678,7 @@
         <v>46</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>162</v>
@@ -3695,10 +3695,10 @@
         <v>66</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>204</v>
@@ -3712,10 +3712,10 @@
         <v>205</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>206</v>
@@ -3746,10 +3746,10 @@
         <v>210</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>211</v>
@@ -3760,13 +3760,13 @@
     </row>
     <row r="99" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
       <c r="A99" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>324</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>80</v>
@@ -3780,10 +3780,10 @@
         <v>212</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>213</v>
@@ -3797,10 +3797,10 @@
         <v>214</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>215</v>
@@ -3814,10 +3814,10 @@
         <v>216</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>217</v>
@@ -3831,7 +3831,7 @@
         <v>218</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>37</v>
@@ -3848,10 +3848,10 @@
         <v>61</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>125</v>
@@ -3865,10 +3865,10 @@
         <v>220</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>221</v>
@@ -3885,7 +3885,7 @@
         <v>223</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>224</v>
@@ -3902,7 +3902,7 @@
         <v>226</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>227</v>
@@ -3916,10 +3916,10 @@
         <v>52</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>114</v>
@@ -3933,10 +3933,10 @@
         <v>55</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>228</v>
@@ -3953,7 +3953,7 @@
         <v>230</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>231</v>
@@ -3970,7 +3970,7 @@
         <v>233</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>234</v>
@@ -3987,7 +3987,7 @@
         <v>236</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>237</v>
@@ -4004,7 +4004,7 @@
         <v>239</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>240</v>
@@ -4052,7 +4052,7 @@
         <v>247</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>37</v>
@@ -4089,7 +4089,7 @@
         <v>253</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>254</v>
@@ -4140,7 +4140,7 @@
         <v>262</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>263</v>
@@ -4157,7 +4157,7 @@
         <v>265</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>266</v>
@@ -4248,7 +4248,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A1" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -4276,284 +4276,284 @@
         <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D5" t="s">
         <v>348</v>
-      </c>
-      <c r="B5" t="s">
-        <v>351</v>
-      </c>
-      <c r="C5" t="s">
-        <v>344</v>
-      </c>
-      <c r="D5" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C6" t="s">
+        <v>351</v>
+      </c>
+      <c r="D6" t="s">
         <v>354</v>
-      </c>
-      <c r="B6" t="s">
-        <v>353</v>
-      </c>
-      <c r="C6" t="s">
-        <v>352</v>
-      </c>
-      <c r="D6" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D7" t="s">
         <v>357</v>
-      </c>
-      <c r="B7" t="s">
-        <v>356</v>
-      </c>
-      <c r="C7" t="s">
-        <v>344</v>
-      </c>
-      <c r="D7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" t="s">
         <v>359</v>
-      </c>
-      <c r="C8" t="s">
-        <v>344</v>
-      </c>
-      <c r="D8" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D9" t="s">
         <v>362</v>
-      </c>
-      <c r="B9" t="s">
-        <v>365</v>
-      </c>
-      <c r="C9" t="s">
-        <v>361</v>
-      </c>
-      <c r="D9" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C10" t="s">
         <v>366</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="13" t="s">
         <v>367</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" t="s">
         <v>369</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>370</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="13" t="s">
         <v>371</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C13" t="s">
         <v>373</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>375</v>
-      </c>
-      <c r="C13" t="s">
-        <v>374</v>
-      </c>
-      <c r="D13" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D14" t="s">
         <v>377</v>
-      </c>
-      <c r="D14" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B16" t="s">
+        <v>380</v>
+      </c>
+      <c r="C16" t="s">
+        <v>379</v>
+      </c>
+      <c r="D16" t="s">
         <v>382</v>
-      </c>
-      <c r="B16" t="s">
-        <v>381</v>
-      </c>
-      <c r="C16" t="s">
-        <v>380</v>
-      </c>
-      <c r="D16" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B17" t="s">
         <v>384</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>385</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>386</v>
-      </c>
-      <c r="D17" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B20" t="s">
+        <v>401</v>
+      </c>
+      <c r="C20" t="s">
+        <v>398</v>
+      </c>
+      <c r="D20" t="s">
         <v>400</v>
-      </c>
-      <c r="B20" t="s">
-        <v>402</v>
-      </c>
-      <c r="C20" t="s">
-        <v>399</v>
-      </c>
-      <c r="D20" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="84" customHeight="1">
       <c r="A28" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="C28" t="s">
         <v>391</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="C28" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="116.25" customHeight="1">
       <c r="A29" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>403</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -4561,7 +4561,7 @@
     </row>
     <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A31" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A33" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
@@ -4593,10 +4593,10 @@
     </row>
     <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/deepstream/配置文件属性.xlsx
+++ b/deepstream/配置文件属性.xlsx
@@ -486,9 +486,6 @@
   </si>
   <si>
     <t>interval=2</t>
-  </si>
-  <si>
-    <t>bbox-border-color</t>
   </si>
   <si>
     <r>
@@ -1589,6 +1586,10 @@
   </si>
   <si>
     <t>Type of CUDA memory element is to allocate for output buffers.0 (cuda-pinned-mem): host/pinned memory allocated with cudaMallocHost().1 (cuda-device-mem): Device memory allocated with cudaMalloc().2 (cuda-unified-mem): Unified memory allocated with cudaMallocManaged().</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbox-border-color</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2165,7 +2166,7 @@
   <sheetData>
     <row r="2" spans="2:3" ht="36.950000000000003" customHeight="1" thickBot="1">
       <c r="B2" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C2" s="16"/>
     </row>
@@ -2246,7 +2247,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" thickBot="1">
@@ -2271,8 +2272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2287,7 +2288,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A2" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2496,7 +2497,7 @@
         <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>59</v>
@@ -2513,7 +2514,7 @@
         <v>61</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>62</v>
@@ -2574,7 +2575,7 @@
         <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>67</v>
@@ -2597,7 +2598,7 @@
         <v>37</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>31</v>
@@ -2614,7 +2615,7 @@
         <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>31</v>
@@ -2631,7 +2632,7 @@
         <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>31</v>
@@ -2812,7 +2813,7 @@
         <v>105</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>106</v>
@@ -2829,7 +2830,7 @@
         <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>108</v>
@@ -2941,7 +2942,7 @@
         <v>52</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>34</v>
@@ -2972,16 +2973,16 @@
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A47" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>31</v>
@@ -2992,7 +2993,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>124</v>
@@ -3053,10 +3054,10 @@
         <v>129</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>130</v>
@@ -3073,7 +3074,7 @@
         <v>132</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>80</v>
@@ -3104,10 +3105,10 @@
         <v>61</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>125</v>
@@ -3141,7 +3142,7 @@
         <v>141</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>142</v>
@@ -3158,7 +3159,7 @@
         <v>144</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>145</v>
@@ -3169,16 +3170,16 @@
     </row>
     <row r="60" spans="1:5" ht="60.75" customHeight="1" thickBot="1">
       <c r="A60" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>128</v>
@@ -3186,50 +3187,50 @@
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A61" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="52.5" customHeight="1" thickBot="1">
       <c r="A62" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A63" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>128</v>
@@ -3238,7 +3239,7 @@
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A65" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -3267,50 +3268,50 @@
         <v>46</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A68" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A69" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="E69" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3318,10 +3319,10 @@
         <v>58</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>80</v>
@@ -3332,59 +3333,59 @@
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A71" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A72" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A73" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A75" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -3413,16 +3414,16 @@
         <v>46</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3430,10 +3431,10 @@
         <v>58</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>80</v>
@@ -3444,172 +3445,172 @@
     </row>
     <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A79" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="E79" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A80" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
       <c r="A81" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="E81" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
       <c r="A82" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A83" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="E83" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A84" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C84" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A85" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="E85" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="36.75" customHeight="1" thickBot="1">
       <c r="A86" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A87" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="58.5" customHeight="1" thickBot="1">
       <c r="A88" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="79.5" customHeight="1" thickBot="1">
@@ -3617,10 +3618,10 @@
         <v>61</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>125</v>
@@ -3631,25 +3632,25 @@
     </row>
     <row r="90" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
       <c r="A90" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A92" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
@@ -3678,16 +3679,16 @@
         <v>46</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
@@ -3695,152 +3696,152 @@
         <v>66</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="24.75" customHeight="1" thickBot="1">
       <c r="A96" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E96" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="48.75" customHeight="1" thickBot="1">
       <c r="A97" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C97" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="46.5" customHeight="1" thickBot="1">
       <c r="A98" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="E98" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
       <c r="A99" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>323</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
       <c r="A100" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="E100" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="39.75" customHeight="1" thickBot="1">
       <c r="A101" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A102" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="E102" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A103" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="82.5" customHeight="1" thickBot="1">
@@ -3848,64 +3849,64 @@
         <v>61</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
       <c r="A105" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="E105" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
       <c r="A106" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="E106" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="41.25" customHeight="1" thickBot="1">
       <c r="A107" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="C107" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>60</v>
@@ -3916,16 +3917,16 @@
         <v>52</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>114</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3933,64 +3934,64 @@
         <v>55</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A110" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="E110" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A111" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="E111" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A112" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>104</v>
@@ -3998,176 +3999,176 @@
     </row>
     <row r="113" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="A113" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="C113" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
       <c r="A114" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="32.25" customHeight="1" thickBot="1">
       <c r="A115" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A116" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A117" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="67.5" customHeight="1" thickBot="1">
       <c r="A118" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="E118" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="40.5" customHeight="1" thickBot="1">
       <c r="A119" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="75.75" customHeight="1" thickBot="1">
       <c r="A120" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="52.5" customHeight="1" thickBot="1">
       <c r="A121" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="C121" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
       <c r="A122" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="E122" s="1"/>
     </row>
     <row r="123" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="124" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A124" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B124" s="18"/>
       <c r="C124" s="18"/>
@@ -4193,19 +4194,19 @@
     </row>
     <row r="126" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A126" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4248,7 +4249,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A1" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -4276,284 +4277,284 @@
         <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D5" t="s">
         <v>347</v>
-      </c>
-      <c r="B5" t="s">
-        <v>350</v>
-      </c>
-      <c r="C5" t="s">
-        <v>343</v>
-      </c>
-      <c r="D5" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D6" t="s">
         <v>353</v>
-      </c>
-      <c r="B6" t="s">
-        <v>352</v>
-      </c>
-      <c r="C6" t="s">
-        <v>351</v>
-      </c>
-      <c r="D6" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" t="s">
         <v>356</v>
-      </c>
-      <c r="B7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C7" t="s">
-        <v>343</v>
-      </c>
-      <c r="D7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D8" t="s">
         <v>358</v>
-      </c>
-      <c r="C8" t="s">
-        <v>343</v>
-      </c>
-      <c r="D8" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D9" t="s">
         <v>361</v>
-      </c>
-      <c r="B9" t="s">
-        <v>364</v>
-      </c>
-      <c r="C9" t="s">
-        <v>360</v>
-      </c>
-      <c r="D9" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B10" t="s">
+        <v>364</v>
+      </c>
+      <c r="C10" t="s">
         <v>365</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="13" t="s">
         <v>366</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11" t="s">
         <v>368</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>369</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="13" t="s">
         <v>370</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B13" t="s">
+        <v>373</v>
+      </c>
+      <c r="C13" t="s">
         <v>372</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>374</v>
-      </c>
-      <c r="C13" t="s">
-        <v>373</v>
-      </c>
-      <c r="D13" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D14" t="s">
         <v>376</v>
-      </c>
-      <c r="D14" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B16" t="s">
+        <v>379</v>
+      </c>
+      <c r="C16" t="s">
+        <v>378</v>
+      </c>
+      <c r="D16" t="s">
         <v>381</v>
-      </c>
-      <c r="B16" t="s">
-        <v>380</v>
-      </c>
-      <c r="C16" t="s">
-        <v>379</v>
-      </c>
-      <c r="D16" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B17" t="s">
         <v>383</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>384</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>385</v>
-      </c>
-      <c r="D17" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B20" t="s">
+        <v>400</v>
+      </c>
+      <c r="C20" t="s">
+        <v>397</v>
+      </c>
+      <c r="D20" t="s">
         <v>399</v>
-      </c>
-      <c r="B20" t="s">
-        <v>401</v>
-      </c>
-      <c r="C20" t="s">
-        <v>398</v>
-      </c>
-      <c r="D20" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="84" customHeight="1">
       <c r="A28" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C28" t="s">
         <v>390</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="C28" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="116.25" customHeight="1">
       <c r="A29" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>402</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -4561,7 +4562,7 @@
     </row>
     <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A31" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -4583,7 +4584,7 @@
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A33" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
@@ -4593,10 +4594,10 @@
     </row>
     <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/deepstream/配置文件属性.xlsx
+++ b/deepstream/配置文件属性.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project_git\nanmi-assets\deepstream\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Space\workspace\项目\GitHub\nanmi-assets\deepstream\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71DD22D-89B7-437E-9B22-8DCAE27F8D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HoConfig" sheetId="3" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="419">
   <si>
     <t>配置组</t>
   </si>
@@ -1592,12 +1593,52 @@
     <t>bbox-border-color</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>推理的级别数量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=Primary 2=Secondary</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dGPU, JetsonBoth GIEs</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dGPU, JetsonBoth</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>network-type=0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>推理的模型类别</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:detector 1:classifier 2:segmentation 3:instance segmentation</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>network-mode=2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型推理的数据格式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:fp32 1:int8 2:fp16</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1698,6 +1739,22 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1779,7 +1836,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1836,6 +1893,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2151,20 +2217,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="58.125" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="58.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="36.950000000000003" customHeight="1" thickBot="1">
+    <row r="2" spans="2:3" ht="36.9" customHeight="1" thickBot="1">
       <c r="B2" s="15" t="s">
         <v>296</v>
       </c>
@@ -2234,7 +2300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="29.25" thickBot="1">
+    <row r="11" spans="2:3" ht="28.2" thickBot="1">
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
@@ -2250,7 +2316,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="15" thickBot="1">
+    <row r="13" spans="2:3" ht="14.4" thickBot="1">
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
@@ -2269,21 +2335,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="42.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="60.625" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="48.375" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="11" width="60.625" customWidth="1"/>
+    <col min="1" max="1" width="42.21875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="48.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="11" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3148,1082 +3214,1133 @@
         <v>142</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="56.4" customHeight="1" thickBot="1">
+      <c r="A59" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="109.2" customHeight="1" thickBot="1">
+      <c r="A60" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="47.25" customHeight="1" thickBot="1">
+      <c r="A61" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A62" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="60.75" customHeight="1" thickBot="1">
+      <c r="A63" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A59" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A60" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E60" s="1" t="s">
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A64" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="52.5" customHeight="1" thickBot="1">
+      <c r="A65" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A66" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A61" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C61" s="2" t="s">
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A68" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="12"/>
+    </row>
+    <row r="69" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A69" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A70" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A71" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A72" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A73" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A74" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A75" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A76" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A78" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="12"/>
+    </row>
+    <row r="79" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A79" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A80" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A81" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A82" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A83" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
+      <c r="A84" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
+      <c r="A85" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A86" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="52.5" customHeight="1" thickBot="1">
-      <c r="A62" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A63" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="D86" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A87" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A88" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="36.75" customHeight="1" thickBot="1">
+      <c r="A89" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A65" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="12"/>
-    </row>
-    <row r="66" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A66" s="10" t="s">
+      <c r="D89" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A90" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="58.5" customHeight="1" thickBot="1">
+      <c r="A91" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="79.5" customHeight="1" thickBot="1">
+      <c r="A92" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A93" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="95" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A95" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="12"/>
+    </row>
+    <row r="96" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A96" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B96" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C96" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D96" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E96" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A67" s="4" t="s">
+    <row r="97" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A97" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="B97" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A68" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C68" s="2" t="s">
+    <row r="98" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
+      <c r="A98" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A99" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="48.75" customHeight="1" thickBot="1">
+      <c r="A100" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="46.5" customHeight="1" thickBot="1">
+      <c r="A101" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E68" s="2" t="s">
+      <c r="D101" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A69" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C69" s="1" t="s">
+    <row r="102" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A102" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E69" s="1" t="s">
+      <c r="D102" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A70" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C70" s="2" t="s">
+    <row r="103" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A103" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="39.75" customHeight="1" thickBot="1">
+      <c r="A104" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A105" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A106" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="82.5" customHeight="1" thickBot="1">
+      <c r="A107" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
+      <c r="A108" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A109" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="41.25" customHeight="1" thickBot="1">
+      <c r="A110" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A111" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A112" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A113" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A114" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A115" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A71" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="D115" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
+      <c r="A116" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A117" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E71" s="1" t="s">
+      <c r="D117" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A72" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C72" s="2" t="s">
+    <row r="118" spans="1:5" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A118" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="D118" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A73" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C73" s="1" t="s">
+    <row r="119" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A119" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A120" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="67.5" customHeight="1" thickBot="1">
+      <c r="A121" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="40.5" customHeight="1" thickBot="1">
+      <c r="A122" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="75.75" customHeight="1" thickBot="1">
+      <c r="A123" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="52.5" customHeight="1" thickBot="1">
+      <c r="A124" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A125" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E125" s="1"/>
+    </row>
+    <row r="126" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="127" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A127" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="B127" s="18"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="12"/>
+    </row>
+    <row r="128" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A128" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A129" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A75" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="12"/>
-    </row>
-    <row r="76" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A76" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A77" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A78" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A79" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A80" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A81" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A82" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A83" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A84" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A85" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A86" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A87" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A88" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="79.5" customHeight="1" thickBot="1">
-      <c r="A89" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A90" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A92" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="12"/>
-    </row>
-    <row r="93" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A93" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A94" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A95" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A96" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A97" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A98" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A99" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A100" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A101" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A102" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A103" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="82.5" customHeight="1" thickBot="1">
-      <c r="A104" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A105" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A106" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A107" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A108" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A109" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A110" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A111" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A112" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A113" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A114" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A115" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A116" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A117" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="67.5" customHeight="1" thickBot="1">
-      <c r="A118" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A119" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="75.75" customHeight="1" thickBot="1">
-      <c r="A120" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="52.5" customHeight="1" thickBot="1">
-      <c r="A121" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A122" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E122" s="1"/>
-    </row>
-    <row r="123" spans="1:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="124" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A124" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="B124" s="18"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="12"/>
-    </row>
-    <row r="125" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A125" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A126" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D126" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A127:D127"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A78:D78"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D23" r:id="rId1" display="http://127.0.0.1/source.mp4uri=rtsp:/127.0.0.1/source1uri=file:/home/ubuntu/source_%25d.mp4"/>
+    <hyperlink ref="D23" r:id="rId1" display="http://127.0.0.1/source.mp4uri=rtsp:/127.0.0.1/source1uri=file:/home/ubuntu/source_%25d.mp4" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -4231,20 +4348,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="39.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="60.625" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="36.625" customWidth="1"/>
-    <col min="5" max="6" width="60.625" customWidth="1"/>
+    <col min="1" max="1" width="39.21875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" customWidth="1"/>
+    <col min="5" max="6" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
